--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,98 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44073</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43707</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42500</v>
+        <v>41200</v>
       </c>
       <c r="E8" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="F8" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="G8" s="3">
-        <v>36900</v>
+        <v>36300</v>
       </c>
       <c r="H8" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="I8" s="3">
+        <v>33600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,57 +764,69 @@
         <v>12000</v>
       </c>
       <c r="E9" s="3">
-        <v>11000</v>
+        <v>13600</v>
       </c>
       <c r="F9" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G9" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="H9" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I9" s="3">
         <v>10000</v>
       </c>
       <c r="J9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="E10" s="3">
-        <v>28700</v>
+        <v>26900</v>
       </c>
       <c r="F10" s="3">
-        <v>28200</v>
+        <v>27800</v>
       </c>
       <c r="G10" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="H10" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="I10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K10" s="3">
         <v>23900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>23500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>800</v>
       </c>
       <c r="J12" s="3">
+        <v>700</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>800</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>28200</v>
+        <v>30800</v>
       </c>
       <c r="E17" s="3">
-        <v>26400</v>
+        <v>31600</v>
       </c>
       <c r="F17" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="G17" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="H17" s="3">
-        <v>23800</v>
+        <v>23200</v>
       </c>
       <c r="I17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>22300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>14300</v>
+        <v>10400</v>
       </c>
       <c r="E18" s="3">
-        <v>13400</v>
+        <v>8900</v>
       </c>
       <c r="F18" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="G18" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="H18" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="I18" s="3">
         <v>10600</v>
       </c>
       <c r="J18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>16600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
-        <v>35100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14300</v>
+        <v>10300</v>
       </c>
       <c r="E23" s="3">
-        <v>16400</v>
+        <v>8600</v>
       </c>
       <c r="F23" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="G23" s="3">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="H23" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="I23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K23" s="3">
         <v>10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4700</v>
+        <v>3200</v>
       </c>
       <c r="E24" s="3">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="F24" s="3">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
         <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J24" s="3">
         <v>2900</v>
       </c>
       <c r="K24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9600</v>
+        <v>7100</v>
       </c>
       <c r="E26" s="3">
-        <v>12400</v>
+        <v>6700</v>
       </c>
       <c r="F26" s="3">
-        <v>9600</v>
+        <v>8700</v>
       </c>
       <c r="G26" s="3">
-        <v>8200</v>
+        <v>11300</v>
       </c>
       <c r="H26" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K26" s="3">
         <v>7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="E27" s="3">
-        <v>9100</v>
+        <v>3900</v>
       </c>
       <c r="F27" s="3">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="G27" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="H27" s="3">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="I27" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K27" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="E33" s="3">
-        <v>9100</v>
+        <v>3900</v>
       </c>
       <c r="F33" s="3">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="G33" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="H33" s="3">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="I33" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K33" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="E35" s="3">
-        <v>9100</v>
+        <v>3900</v>
       </c>
       <c r="F35" s="3">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="H35" s="3">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K35" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44073</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43707</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>36400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
@@ -1562,19 +1736,25 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3">
+        <v>600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
@@ -1591,19 +1771,25 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>17400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
@@ -1620,19 +1806,25 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16700</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -1649,19 +1841,25 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
@@ -1678,19 +1876,25 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
+        <v>58000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>87300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>41100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
@@ -1707,48 +1911,60 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>65000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>76600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>59200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
@@ -1765,19 +1981,25 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
+        <v>26200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>24300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2086,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2156,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>144500</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
+        <v>165800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>131700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>16</v>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2225,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
+        <v>19600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>16</v>
@@ -1994,19 +2256,25 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
@@ -2023,19 +2291,25 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>24500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
@@ -2052,19 +2326,25 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39300</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
+        <v>40000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>35800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>16</v>
@@ -2081,19 +2361,25 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>12600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>16</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2536,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>53800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>135500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>75200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>16</v>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2726,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
+        <v>-357900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>53700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2866,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
+        <v>112000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>56500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44073</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43707</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="E81" s="3">
-        <v>9100</v>
+        <v>3900</v>
       </c>
       <c r="F81" s="3">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="H81" s="3">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="I81" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J81" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K81" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>14700</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-11500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-8400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-12300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>31400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44073</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43707</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="E8" s="3">
-        <v>40500</v>
+        <v>38800</v>
       </c>
       <c r="F8" s="3">
-        <v>38700</v>
+        <v>38100</v>
       </c>
       <c r="G8" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="H8" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="I8" s="3">
-        <v>33600</v>
+        <v>33100</v>
       </c>
       <c r="J8" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K8" s="3">
         <v>32400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="E9" s="3">
-        <v>13600</v>
+        <v>11300</v>
       </c>
       <c r="F9" s="3">
-        <v>10900</v>
+        <v>12800</v>
       </c>
       <c r="G9" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H9" s="3">
         <v>9500</v>
       </c>
       <c r="I9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29200</v>
+        <v>28000</v>
       </c>
       <c r="E10" s="3">
-        <v>26900</v>
+        <v>27500</v>
       </c>
       <c r="F10" s="3">
-        <v>27800</v>
+        <v>25400</v>
       </c>
       <c r="G10" s="3">
         <v>26200</v>
       </c>
       <c r="H10" s="3">
-        <v>25700</v>
+        <v>24700</v>
       </c>
       <c r="I10" s="3">
-        <v>23600</v>
+        <v>24200</v>
       </c>
       <c r="J10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K10" s="3">
         <v>23200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,34 +863,37 @@
         <v>2200</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
-        <v>1200</v>
-      </c>
       <c r="I12" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L12" s="3">
         <v>800</v>
       </c>
       <c r="M12" s="3">
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,19 +927,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="E17" s="3">
-        <v>31600</v>
+        <v>29000</v>
       </c>
       <c r="F17" s="3">
-        <v>25700</v>
+        <v>29800</v>
       </c>
       <c r="G17" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="H17" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="I17" s="3">
-        <v>23000</v>
+        <v>21900</v>
       </c>
       <c r="J17" s="3">
         <v>21700</v>
       </c>
       <c r="K17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="E18" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="F18" s="3">
-        <v>13000</v>
+        <v>8400</v>
       </c>
       <c r="G18" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="H18" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="I18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,45 +1120,48 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>17300</v>
+        <v>11700</v>
       </c>
       <c r="E21" s="3">
-        <v>16600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>16300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
@@ -1132,23 +1169,26 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>32000</v>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K21" s="3">
         <v>26500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L23" s="3">
         <v>10300</v>
       </c>
-      <c r="E23" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10300</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="I24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="E26" s="3">
         <v>6700</v>
       </c>
       <c r="F26" s="3">
-        <v>8700</v>
+        <v>6400</v>
       </c>
       <c r="G26" s="3">
-        <v>11300</v>
+        <v>8200</v>
       </c>
       <c r="H26" s="3">
-        <v>8700</v>
+        <v>10600</v>
       </c>
       <c r="I26" s="3">
-        <v>7500</v>
+        <v>8200</v>
       </c>
       <c r="J26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K26" s="3">
         <v>7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="E27" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="G27" s="3">
-        <v>8300</v>
+        <v>5400</v>
       </c>
       <c r="H27" s="3">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="I27" s="3">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="J27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1576,75 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>300</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="E33" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="G33" s="3">
-        <v>8300</v>
+        <v>5400</v>
       </c>
       <c r="H33" s="3">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="I33" s="3">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="J33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="E35" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="G35" s="3">
-        <v>8300</v>
+        <v>5400</v>
       </c>
       <c r="H35" s="3">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="I35" s="3">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="J35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44073</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43707</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,22 +1793,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36400</v>
+        <v>41100</v>
       </c>
       <c r="E41" s="3">
-        <v>6300</v>
+        <v>34300</v>
       </c>
       <c r="F41" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
+        <v>5900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
@@ -1742,22 +1829,25 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+      <c r="G42" s="3">
+        <v>1100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -1777,22 +1867,25 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>18600</v>
-      </c>
       <c r="F43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
+        <v>17500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>16400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
@@ -1812,22 +1905,25 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>14300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="3">
-        <v>61800</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
+        <v>58200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -1882,22 +1981,25 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58000</v>
+        <v>64100</v>
       </c>
       <c r="E46" s="3">
-        <v>87300</v>
+        <v>54700</v>
       </c>
       <c r="F46" s="3">
-        <v>41100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
+        <v>82200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>38700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
@@ -1917,19 +2019,22 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
@@ -1943,8 +2048,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1952,22 +2057,25 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76600</v>
+        <v>75800</v>
       </c>
       <c r="E48" s="3">
-        <v>74800</v>
+        <v>72200</v>
       </c>
       <c r="F48" s="3">
-        <v>59200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>70400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>55800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1996,13 +2107,13 @@
         <v>26200</v>
       </c>
       <c r="E49" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="F49" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>23800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>22900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2209,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,22 +2285,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165800</v>
+        <v>171000</v>
       </c>
       <c r="E54" s="3">
-        <v>191800</v>
+        <v>156200</v>
       </c>
       <c r="F54" s="3">
-        <v>131700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>180600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>124000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>17800</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>18400</v>
       </c>
       <c r="F57" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>5700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
@@ -2262,22 +2393,25 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>63500</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>59800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2297,22 +2431,25 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17300</v>
+        <v>13900</v>
       </c>
       <c r="E59" s="3">
-        <v>24900</v>
+        <v>16300</v>
       </c>
       <c r="F59" s="3">
-        <v>24500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
+        <v>23400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>23100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
@@ -2332,22 +2469,25 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40000</v>
+        <v>34400</v>
       </c>
       <c r="E60" s="3">
-        <v>94300</v>
+        <v>37600</v>
       </c>
       <c r="F60" s="3">
-        <v>35800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
+        <v>88900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>33700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
@@ -2367,22 +2507,25 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5200</v>
+        <v>10100</v>
       </c>
       <c r="E61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F61" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2402,22 +2545,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
+        <v>7900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2697,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53800</v>
+        <v>55400</v>
       </c>
       <c r="E66" s="3">
-        <v>135500</v>
+        <v>50700</v>
       </c>
       <c r="F66" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
+        <v>127600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>70900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,22 +2903,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-357900</v>
+        <v>-326900</v>
       </c>
       <c r="E72" s="3">
-        <v>-124600</v>
+        <v>-337000</v>
       </c>
       <c r="F72" s="3">
-        <v>53700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
+        <v>-117300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>50600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3055,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>112000</v>
+        <v>115700</v>
       </c>
       <c r="E76" s="3">
-        <v>56300</v>
+        <v>105500</v>
       </c>
       <c r="F76" s="3">
-        <v>56500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
+        <v>53000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>53200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44073</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43707</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="E81" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="G81" s="3">
-        <v>8300</v>
+        <v>5400</v>
       </c>
       <c r="H81" s="3">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="I81" s="3">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="J81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
@@ -3058,8 +3257,8 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,19 +3456,22 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14700</v>
+        <v>13500</v>
       </c>
       <c r="E89" s="3">
-        <v>14700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>13900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>13900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
@@ -3268,8 +3485,8 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,19 +3512,20 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-10800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
@@ -3318,8 +3539,8 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,19 +3624,22 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8400</v>
+        <v>-10100</v>
       </c>
       <c r="E94" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
+        <v>-7900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-11500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
@@ -3423,8 +3653,8 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,19 +3830,22 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>26400</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>24800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
@@ -3613,8 +3859,8 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3622,19 +3868,22 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
+      <c r="F101" s="3">
+        <v>-700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
@@ -3648,8 +3897,8 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31400</v>
+        <v>6900</v>
       </c>
       <c r="E102" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3683,13 +3935,16 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44073</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43707</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40800</v>
+        <v>47800</v>
       </c>
       <c r="E8" s="3">
-        <v>38800</v>
+        <v>43700</v>
       </c>
       <c r="F8" s="3">
-        <v>38100</v>
+        <v>41600</v>
       </c>
       <c r="G8" s="3">
-        <v>36500</v>
+        <v>40900</v>
       </c>
       <c r="H8" s="3">
-        <v>34100</v>
+        <v>39100</v>
       </c>
       <c r="I8" s="3">
-        <v>33100</v>
+        <v>36600</v>
       </c>
       <c r="J8" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K8" s="3">
         <v>31600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12800</v>
+        <v>16600</v>
       </c>
       <c r="E9" s="3">
-        <v>11300</v>
+        <v>13700</v>
       </c>
       <c r="F9" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="G9" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="3">
         <v>10300</v>
       </c>
-      <c r="H9" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>10300</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>27200</v>
+      </c>
+      <c r="H10" s="3">
         <v>28000</v>
       </c>
-      <c r="E10" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>26200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>24700</v>
-      </c>
       <c r="I10" s="3">
-        <v>24200</v>
+        <v>26400</v>
       </c>
       <c r="J10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2800</v>
-      </c>
       <c r="G12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
-        <v>1400</v>
-      </c>
       <c r="I12" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
       </c>
       <c r="L12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>800</v>
       </c>
       <c r="N12" s="3">
+        <v>800</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -959,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>29800</v>
+        <v>34200</v>
       </c>
       <c r="E17" s="3">
-        <v>29000</v>
+        <v>31900</v>
       </c>
       <c r="F17" s="3">
-        <v>29800</v>
+        <v>31100</v>
       </c>
       <c r="G17" s="3">
-        <v>24200</v>
+        <v>31900</v>
       </c>
       <c r="H17" s="3">
-        <v>22700</v>
+        <v>25900</v>
       </c>
       <c r="I17" s="3">
-        <v>21900</v>
+        <v>24300</v>
       </c>
       <c r="J17" s="3">
-        <v>21700</v>
+        <v>23400</v>
       </c>
       <c r="K17" s="3">
         <v>21700</v>
       </c>
       <c r="L17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="M17" s="3">
         <v>23300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>11000</v>
+        <v>13600</v>
       </c>
       <c r="E18" s="3">
-        <v>9800</v>
+        <v>11800</v>
       </c>
       <c r="F18" s="3">
-        <v>8400</v>
+        <v>10500</v>
       </c>
       <c r="G18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I18" s="3">
         <v>12300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="I18" s="3">
-        <v>11300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,48 +1156,51 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11700</v>
+        <v>14600</v>
       </c>
       <c r="E21" s="3">
-        <v>16300</v>
+        <v>12600</v>
       </c>
       <c r="F21" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>17500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1172,23 +1208,26 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>30100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10900</v>
+        <v>13400</v>
       </c>
       <c r="E23" s="3">
-        <v>9700</v>
+        <v>11700</v>
       </c>
       <c r="F23" s="3">
-        <v>8100</v>
+        <v>10400</v>
       </c>
       <c r="G23" s="3">
-        <v>12300</v>
+        <v>8700</v>
       </c>
       <c r="H23" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="I23" s="3">
-        <v>11300</v>
+        <v>15100</v>
       </c>
       <c r="J23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="K24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7600</v>
+        <v>9800</v>
       </c>
       <c r="E26" s="3">
-        <v>6700</v>
+        <v>8200</v>
       </c>
       <c r="F26" s="3">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="G26" s="3">
-        <v>8200</v>
+        <v>6800</v>
       </c>
       <c r="H26" s="3">
-        <v>10600</v>
+        <v>8800</v>
       </c>
       <c r="I26" s="3">
-        <v>8200</v>
+        <v>11400</v>
       </c>
       <c r="J26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K26" s="3">
         <v>7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="E27" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="F27" s="3">
-        <v>3700</v>
+        <v>5900</v>
       </c>
       <c r="G27" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="H27" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="I27" s="3">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="J27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="3">
         <v>4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,72 +1648,78 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="E33" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="F33" s="3">
-        <v>3700</v>
+        <v>5900</v>
       </c>
       <c r="G33" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="H33" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="I33" s="3">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="J33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K33" s="3">
         <v>4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="E35" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="F35" s="3">
-        <v>3700</v>
+        <v>5900</v>
       </c>
       <c r="G35" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="H35" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="I35" s="3">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="J35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K35" s="3">
         <v>4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44073</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43707</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,25 +1879,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41100</v>
+        <v>53000</v>
       </c>
       <c r="E41" s="3">
-        <v>34300</v>
+        <v>44100</v>
       </c>
       <c r="F41" s="3">
-        <v>5900</v>
+        <v>36800</v>
       </c>
       <c r="G41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>6300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1843,14 +1932,14 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
+      <c r="H42" s="3">
+        <v>1200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
@@ -1870,25 +1959,28 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>24400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>24400</v>
       </c>
       <c r="F43" s="3">
-        <v>17500</v>
+        <v>21600</v>
       </c>
       <c r="G43" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
+        <v>18800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>17600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
@@ -1908,25 +2000,28 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
@@ -1946,25 +2041,28 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="3">
-        <v>58200</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>62400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
@@ -1984,25 +2082,28 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64100</v>
+        <v>78300</v>
       </c>
       <c r="E46" s="3">
-        <v>54700</v>
+        <v>68700</v>
       </c>
       <c r="F46" s="3">
-        <v>82200</v>
+        <v>58600</v>
       </c>
       <c r="G46" s="3">
-        <v>38700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>88100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>41400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
@@ -2022,22 +2123,25 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>1300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2051,8 +2155,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,25 +2164,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75800</v>
+        <v>86600</v>
       </c>
       <c r="E48" s="3">
-        <v>72200</v>
+        <v>81300</v>
       </c>
       <c r="F48" s="3">
-        <v>70400</v>
+        <v>77300</v>
       </c>
       <c r="G48" s="3">
-        <v>55800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>75500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>59800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
@@ -2098,25 +2205,28 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26200</v>
+        <v>34700</v>
       </c>
       <c r="E49" s="3">
-        <v>24700</v>
+        <v>28100</v>
       </c>
       <c r="F49" s="3">
-        <v>23800</v>
+        <v>26500</v>
       </c>
       <c r="G49" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
+        <v>25500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>24500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2328,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="G52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
+        <v>3100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,25 +2410,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171000</v>
+        <v>205400</v>
       </c>
       <c r="E54" s="3">
-        <v>156200</v>
+        <v>183300</v>
       </c>
       <c r="F54" s="3">
-        <v>180600</v>
+        <v>167300</v>
       </c>
       <c r="G54" s="3">
-        <v>124000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
+        <v>193500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>132900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2487,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17800</v>
+        <v>18800</v>
       </c>
       <c r="E57" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="F57" s="3">
-        <v>5700</v>
+        <v>19800</v>
       </c>
       <c r="G57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
+        <v>6100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
@@ -2396,25 +2526,28 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
-        <v>59800</v>
+        <v>3100</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>64000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2434,25 +2567,28 @@
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13900</v>
+        <v>18100</v>
       </c>
       <c r="E59" s="3">
-        <v>16300</v>
+        <v>14800</v>
       </c>
       <c r="F59" s="3">
-        <v>23400</v>
+        <v>17400</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
+        <v>25100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>24800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
@@ -2472,25 +2608,28 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34400</v>
+        <v>40100</v>
       </c>
       <c r="E60" s="3">
-        <v>37600</v>
+        <v>36900</v>
       </c>
       <c r="F60" s="3">
-        <v>88900</v>
+        <v>40300</v>
       </c>
       <c r="G60" s="3">
-        <v>33700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
+        <v>95200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>36200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
@@ -2510,25 +2649,28 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10100</v>
+        <v>12800</v>
       </c>
       <c r="E61" s="3">
-        <v>4900</v>
+        <v>10800</v>
       </c>
       <c r="F61" s="3">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="G61" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,25 +2690,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>10100</v>
       </c>
       <c r="F62" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="G62" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>8500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>12800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2854,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55400</v>
+        <v>65200</v>
       </c>
       <c r="E66" s="3">
-        <v>50700</v>
+        <v>59300</v>
       </c>
       <c r="F66" s="3">
-        <v>127600</v>
+        <v>54300</v>
       </c>
       <c r="G66" s="3">
-        <v>70900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
+        <v>136800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>75900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3076,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-326900</v>
+        <v>-340700</v>
       </c>
       <c r="E72" s="3">
-        <v>-337000</v>
+        <v>-350300</v>
       </c>
       <c r="F72" s="3">
-        <v>-117300</v>
+        <v>-361200</v>
       </c>
       <c r="G72" s="3">
-        <v>50600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>-125700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>54200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3240,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>115700</v>
+        <v>140200</v>
       </c>
       <c r="E76" s="3">
-        <v>105500</v>
+        <v>124000</v>
       </c>
       <c r="F76" s="3">
-        <v>53000</v>
+        <v>113000</v>
       </c>
       <c r="G76" s="3">
-        <v>53200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
+        <v>56800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>57000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44073</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43707</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7400</v>
+        <v>9700</v>
       </c>
       <c r="E81" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="F81" s="3">
-        <v>3700</v>
+        <v>5900</v>
       </c>
       <c r="G81" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="H81" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="I81" s="3">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="J81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K81" s="3">
         <v>4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,11 +3440,11 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -3260,8 +3458,8 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,22 +3672,25 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="E89" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="F89" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+        <v>14900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>14800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -3488,8 +3704,8 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,11 +3744,11 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-11600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -3542,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,22 +3853,25 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10100</v>
+        <v>-16800</v>
       </c>
       <c r="E94" s="3">
-        <v>-7900</v>
+        <v>-10800</v>
       </c>
       <c r="F94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+        <v>-8400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -3656,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,22 +4075,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
-        <v>24800</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+        <v>26600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -3862,8 +4107,8 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3871,22 +4116,25 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>-800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -3900,8 +4148,8 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3909,23 +4157,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6900</v>
+        <v>8900</v>
       </c>
       <c r="E102" s="3">
-        <v>29600</v>
+        <v>7300</v>
       </c>
       <c r="F102" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3938,13 +4189,16 @@
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47800</v>
+        <v>44700</v>
       </c>
       <c r="E8" s="3">
-        <v>43700</v>
+        <v>40900</v>
       </c>
       <c r="F8" s="3">
-        <v>41600</v>
+        <v>38900</v>
       </c>
       <c r="G8" s="3">
-        <v>40900</v>
+        <v>38200</v>
       </c>
       <c r="H8" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="I8" s="3">
-        <v>36600</v>
+        <v>34200</v>
       </c>
       <c r="J8" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="K8" s="3">
         <v>31600</v>
@@ -774,25 +774,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>13700</v>
+        <v>12900</v>
       </c>
       <c r="F9" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="G9" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="H9" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="I9" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="J9" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="K9" s="3">
         <v>9400</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="E10" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="F10" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="G10" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="I10" s="3">
-        <v>26400</v>
+        <v>24700</v>
       </c>
       <c r="J10" s="3">
-        <v>25900</v>
+        <v>24200</v>
       </c>
       <c r="K10" s="3">
         <v>22200</v>
@@ -873,25 +873,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -1051,25 +1051,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="E17" s="3">
-        <v>31900</v>
+        <v>29900</v>
       </c>
       <c r="F17" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="G17" s="3">
-        <v>31900</v>
+        <v>29900</v>
       </c>
       <c r="H17" s="3">
-        <v>25900</v>
+        <v>24300</v>
       </c>
       <c r="I17" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="J17" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="K17" s="3">
         <v>21700</v>
@@ -1092,25 +1092,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="E18" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="F18" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G18" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="H18" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="I18" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="J18" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="K18" s="3">
         <v>9900</v>
@@ -1159,13 +1159,13 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1191,16 +1191,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="E21" s="3">
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="F21" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="G21" s="3">
-        <v>16800</v>
+        <v>15700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="E23" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="F23" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="G23" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="H23" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="I23" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="J23" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="K23" s="3">
         <v>9800</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3700</v>
-      </c>
       <c r="J24" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K24" s="3">
         <v>2800</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="E26" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="F26" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="G26" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="H26" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="I26" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="J26" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="K26" s="3">
         <v>7100</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E27" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G27" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H27" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I27" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J27" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K27" s="3">
         <v>4700</v>
@@ -1651,13 +1651,13 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E33" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F33" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G33" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H33" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I33" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J33" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K33" s="3">
         <v>4700</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E35" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F35" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G35" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H35" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I35" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J35" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K35" s="3">
         <v>4700</v>
@@ -1886,19 +1886,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53000</v>
+        <v>49600</v>
       </c>
       <c r="E41" s="3">
-        <v>44100</v>
+        <v>41300</v>
       </c>
       <c r="F41" s="3">
-        <v>36800</v>
+        <v>34400</v>
       </c>
       <c r="G41" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="H41" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
@@ -1939,7 +1939,7 @@
         <v>600</v>
       </c>
       <c r="H42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
@@ -1968,19 +1968,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24400</v>
+        <v>22900</v>
       </c>
       <c r="E43" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="F43" s="3">
-        <v>21600</v>
+        <v>20200</v>
       </c>
       <c r="G43" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="H43" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
@@ -2009,7 +2009,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
@@ -2059,10 +2059,10 @@
         <v>16</v>
       </c>
       <c r="G45" s="3">
-        <v>62400</v>
+        <v>58300</v>
       </c>
       <c r="H45" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
@@ -2091,19 +2091,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>78300</v>
+        <v>73300</v>
       </c>
       <c r="E46" s="3">
-        <v>68700</v>
+        <v>64300</v>
       </c>
       <c r="F46" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="G46" s="3">
-        <v>88100</v>
+        <v>82400</v>
       </c>
       <c r="H46" s="3">
-        <v>41400</v>
+        <v>38800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
@@ -2132,16 +2132,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2173,19 +2173,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86600</v>
+        <v>81000</v>
       </c>
       <c r="E48" s="3">
-        <v>81300</v>
+        <v>76000</v>
       </c>
       <c r="F48" s="3">
-        <v>77300</v>
+        <v>72300</v>
       </c>
       <c r="G48" s="3">
-        <v>75500</v>
+        <v>70600</v>
       </c>
       <c r="H48" s="3">
-        <v>59800</v>
+        <v>55900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
@@ -2214,19 +2214,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34700</v>
+        <v>32500</v>
       </c>
       <c r="E49" s="3">
-        <v>28100</v>
+        <v>26300</v>
       </c>
       <c r="F49" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G49" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="H49" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
@@ -2337,19 +2337,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H52" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
@@ -2419,19 +2419,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>205400</v>
+        <v>192100</v>
       </c>
       <c r="E54" s="3">
-        <v>183300</v>
+        <v>171500</v>
       </c>
       <c r="F54" s="3">
-        <v>167300</v>
+        <v>156600</v>
       </c>
       <c r="G54" s="3">
-        <v>193500</v>
+        <v>181100</v>
       </c>
       <c r="H54" s="3">
-        <v>132900</v>
+        <v>124300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
@@ -2494,19 +2494,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="E57" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="F57" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="G57" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="H57" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
@@ -2535,19 +2535,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F58" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
-        <v>64000</v>
+        <v>59900</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2576,19 +2576,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="E59" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F59" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="G59" s="3">
-        <v>25100</v>
+        <v>23500</v>
       </c>
       <c r="H59" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
@@ -2617,19 +2617,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40100</v>
+        <v>37600</v>
       </c>
       <c r="E60" s="3">
-        <v>36900</v>
+        <v>34500</v>
       </c>
       <c r="F60" s="3">
-        <v>40300</v>
+        <v>37700</v>
       </c>
       <c r="G60" s="3">
-        <v>95200</v>
+        <v>89100</v>
       </c>
       <c r="H60" s="3">
-        <v>36200</v>
+        <v>33800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
@@ -2658,19 +2658,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="E61" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H61" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2699,19 +2699,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="F62" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G62" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="H62" s="3">
-        <v>12800</v>
+        <v>11900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -2863,19 +2863,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65200</v>
+        <v>61000</v>
       </c>
       <c r="E66" s="3">
-        <v>59300</v>
+        <v>55500</v>
       </c>
       <c r="F66" s="3">
-        <v>54300</v>
+        <v>50800</v>
       </c>
       <c r="G66" s="3">
-        <v>136800</v>
+        <v>127900</v>
       </c>
       <c r="H66" s="3">
-        <v>75900</v>
+        <v>71000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -3085,19 +3085,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-340700</v>
+        <v>-318700</v>
       </c>
       <c r="E72" s="3">
-        <v>-350300</v>
+        <v>-327800</v>
       </c>
       <c r="F72" s="3">
-        <v>-361200</v>
+        <v>-337900</v>
       </c>
       <c r="G72" s="3">
-        <v>-125700</v>
+        <v>-117600</v>
       </c>
       <c r="H72" s="3">
-        <v>54200</v>
+        <v>50700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -3249,19 +3249,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>140200</v>
+        <v>131200</v>
       </c>
       <c r="E76" s="3">
-        <v>124000</v>
+        <v>116000</v>
       </c>
       <c r="F76" s="3">
-        <v>113000</v>
+        <v>105700</v>
       </c>
       <c r="G76" s="3">
-        <v>56800</v>
+        <v>53100</v>
       </c>
       <c r="H76" s="3">
-        <v>57000</v>
+        <v>53300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="E81" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F81" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G81" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H81" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I81" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J81" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K81" s="3">
         <v>4700</v>
@@ -3444,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="G83" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -3681,16 +3681,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20500</v>
+        <v>19100</v>
       </c>
       <c r="E89" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="F89" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="G89" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -3748,7 +3748,7 @@
         <v>16</v>
       </c>
       <c r="G91" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -3862,16 +3862,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="F94" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="G94" s="3">
-        <v>-12400</v>
+        <v>-11600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -4084,16 +4084,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F100" s="3">
-        <v>26600</v>
+        <v>24900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -4125,16 +4125,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
         <v>-1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -4166,13 +4166,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="E102" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="F102" s="3">
-        <v>31700</v>
+        <v>29700</v>
       </c>
       <c r="G102" s="3">
         <v>600</v>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44073</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43707</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44700</v>
+        <v>47800</v>
       </c>
       <c r="E8" s="3">
-        <v>40900</v>
+        <v>44300</v>
       </c>
       <c r="F8" s="3">
-        <v>38900</v>
+        <v>42900</v>
       </c>
       <c r="G8" s="3">
-        <v>38200</v>
+        <v>39300</v>
       </c>
       <c r="H8" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="I8" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K8" s="3">
         <v>34200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>31600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>32400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>33800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="E9" s="3">
-        <v>12900</v>
+        <v>16900</v>
       </c>
       <c r="F9" s="3">
-        <v>11300</v>
+        <v>14900</v>
       </c>
       <c r="G9" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="H9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="3">
         <v>10300</v>
       </c>
-      <c r="I9" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>9300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10300</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29200</v>
+        <v>31600</v>
       </c>
       <c r="E10" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="F10" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="G10" s="3">
-        <v>25400</v>
+        <v>27000</v>
       </c>
       <c r="H10" s="3">
-        <v>26200</v>
+        <v>26500</v>
       </c>
       <c r="I10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K10" s="3">
         <v>24700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>23200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="F12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+      <c r="I14" s="3">
+        <v>1500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -981,17 +1021,23 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>32000</v>
+        <v>34800</v>
       </c>
       <c r="E17" s="3">
-        <v>29900</v>
+        <v>35400</v>
       </c>
       <c r="F17" s="3">
-        <v>29100</v>
+        <v>30700</v>
       </c>
       <c r="G17" s="3">
-        <v>29900</v>
+        <v>28700</v>
       </c>
       <c r="H17" s="3">
-        <v>24300</v>
+        <v>27900</v>
       </c>
       <c r="I17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K17" s="3">
         <v>22700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>21700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>23300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>22300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="E18" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="F18" s="3">
-        <v>9800</v>
+        <v>12200</v>
       </c>
       <c r="G18" s="3">
-        <v>8400</v>
+        <v>10600</v>
       </c>
       <c r="H18" s="3">
-        <v>12300</v>
+        <v>9400</v>
       </c>
       <c r="I18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,13 +1210,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1159,75 +1227,87 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13600</v>
+        <v>21100</v>
       </c>
       <c r="E21" s="3">
-        <v>11700</v>
+        <v>34100</v>
       </c>
       <c r="F21" s="3">
-        <v>16400</v>
+        <v>13100</v>
       </c>
       <c r="G21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H21" s="3">
         <v>15700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+      <c r="I21" s="3">
+        <v>15100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>30100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="E23" s="3">
-        <v>10900</v>
+        <v>8800</v>
       </c>
       <c r="F23" s="3">
-        <v>9700</v>
+        <v>12100</v>
       </c>
       <c r="G23" s="3">
-        <v>8100</v>
+        <v>10500</v>
       </c>
       <c r="H23" s="3">
-        <v>12300</v>
+        <v>9300</v>
       </c>
       <c r="I23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="H24" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="I24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3000</v>
       </c>
       <c r="N24" s="3">
         <v>2900</v>
       </c>
       <c r="O24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="E26" s="3">
-        <v>7600</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="G26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E27" s="3">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="F27" s="3">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="G27" s="3">
-        <v>3700</v>
+        <v>7100</v>
       </c>
       <c r="H27" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K27" s="3">
         <v>7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5300</v>
       </c>
       <c r="O27" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1770,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1651,75 +1791,87 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E33" s="3">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="F33" s="3">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="G33" s="3">
-        <v>3700</v>
+        <v>7100</v>
       </c>
       <c r="H33" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5300</v>
       </c>
       <c r="O33" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E35" s="3">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="F35" s="3">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="G35" s="3">
-        <v>3700</v>
+        <v>7100</v>
       </c>
       <c r="H35" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5300</v>
       </c>
       <c r="O35" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44073</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43707</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,31 +2052,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49600</v>
+        <v>51000</v>
       </c>
       <c r="E41" s="3">
-        <v>41300</v>
+        <v>43000</v>
       </c>
       <c r="F41" s="3">
-        <v>34400</v>
+        <v>47700</v>
       </c>
       <c r="G41" s="3">
-        <v>5900</v>
+        <v>39600</v>
       </c>
       <c r="H41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+        <v>33000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -1921,32 +2095,38 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
+      <c r="E42" s="3">
+        <v>700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1962,31 +2142,37 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22900</v>
+        <v>20200</v>
       </c>
       <c r="E43" s="3">
-        <v>22800</v>
+        <v>18900</v>
       </c>
       <c r="F43" s="3">
-        <v>20200</v>
+        <v>22000</v>
       </c>
       <c r="G43" s="3">
-        <v>17600</v>
+        <v>21900</v>
       </c>
       <c r="H43" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>19500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>15800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -2003,31 +2189,37 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
-        <v>300</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>13800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
@@ -2044,31 +2236,37 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>58300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -2085,31 +2283,37 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>73300</v>
+        <v>75000</v>
       </c>
       <c r="E46" s="3">
-        <v>64300</v>
+        <v>66500</v>
       </c>
       <c r="F46" s="3">
-        <v>54800</v>
+        <v>70400</v>
       </c>
       <c r="G46" s="3">
-        <v>82400</v>
+        <v>61800</v>
       </c>
       <c r="H46" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>52600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,19 +2345,19 @@
         <v>1200</v>
       </c>
       <c r="E47" s="3">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
         <v>1200</v>
       </c>
       <c r="G47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
+      <c r="I47" s="3">
+        <v>1200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
@@ -2158,40 +2368,46 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81000</v>
+        <v>86300</v>
       </c>
       <c r="E48" s="3">
-        <v>76000</v>
+        <v>83000</v>
       </c>
       <c r="F48" s="3">
-        <v>72300</v>
+        <v>77800</v>
       </c>
       <c r="G48" s="3">
-        <v>70600</v>
+        <v>73000</v>
       </c>
       <c r="H48" s="3">
-        <v>55900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
+        <v>69500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>67900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>53700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
@@ -2208,31 +2424,37 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32500</v>
+        <v>30000</v>
       </c>
       <c r="E49" s="3">
-        <v>26300</v>
+        <v>29500</v>
       </c>
       <c r="F49" s="3">
-        <v>24800</v>
+        <v>31200</v>
       </c>
       <c r="G49" s="3">
-        <v>23900</v>
+        <v>25200</v>
       </c>
       <c r="H49" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I49" s="3">
         <v>22900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+      <c r="J49" s="3">
+        <v>22000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,22 +2580,22 @@
         <v>4200</v>
       </c>
       <c r="E52" s="3">
-        <v>1900</v>
+        <v>4100</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
+        <v>3300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2659,37 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>192100</v>
+        <v>196800</v>
       </c>
       <c r="E54" s="3">
-        <v>171500</v>
+        <v>184400</v>
       </c>
       <c r="F54" s="3">
-        <v>156600</v>
+        <v>184600</v>
       </c>
       <c r="G54" s="3">
-        <v>181100</v>
+        <v>164700</v>
       </c>
       <c r="H54" s="3">
-        <v>124300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>150400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>173900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>119500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2454,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,31 +2748,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="E57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H57" s="3">
         <v>17800</v>
       </c>
-      <c r="F57" s="3">
-        <v>18500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+      <c r="I57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2529,31 +2791,37 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>2800</v>
+        <v>4900</v>
       </c>
       <c r="F58" s="3">
         <v>2900</v>
       </c>
       <c r="G58" s="3">
-        <v>59900</v>
+        <v>2700</v>
       </c>
       <c r="H58" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>2800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2570,31 +2838,37 @@
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16900</v>
+        <v>18700</v>
       </c>
       <c r="E59" s="3">
-        <v>13900</v>
+        <v>27000</v>
       </c>
       <c r="F59" s="3">
         <v>16300</v>
       </c>
       <c r="G59" s="3">
-        <v>23500</v>
+        <v>13300</v>
       </c>
       <c r="H59" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>15700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2611,31 +2885,37 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37600</v>
+        <v>39500</v>
       </c>
       <c r="E60" s="3">
-        <v>34500</v>
+        <v>37200</v>
       </c>
       <c r="F60" s="3">
-        <v>37700</v>
+        <v>36100</v>
       </c>
       <c r="G60" s="3">
-        <v>89100</v>
+        <v>33200</v>
       </c>
       <c r="H60" s="3">
-        <v>33800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>36200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>85600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>32500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2652,31 +2932,37 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>8100</v>
       </c>
       <c r="F61" s="3">
-        <v>4900</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
-        <v>4400</v>
+        <v>9700</v>
       </c>
       <c r="H61" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2693,31 +2979,37 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F62" s="3">
-        <v>7000</v>
+        <v>9100</v>
       </c>
       <c r="G62" s="3">
-        <v>7900</v>
+        <v>9100</v>
       </c>
       <c r="H62" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+        <v>6700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,31 +3167,37 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61000</v>
+        <v>57900</v>
       </c>
       <c r="E66" s="3">
-        <v>55500</v>
+        <v>56000</v>
       </c>
       <c r="F66" s="3">
-        <v>50800</v>
+        <v>58600</v>
       </c>
       <c r="G66" s="3">
-        <v>127900</v>
+        <v>53300</v>
       </c>
       <c r="H66" s="3">
-        <v>71000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>48800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>122900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>68300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -2898,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,31 +3421,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-318700</v>
+        <v>-290400</v>
       </c>
       <c r="E72" s="3">
-        <v>-327800</v>
+        <v>-299600</v>
       </c>
       <c r="F72" s="3">
-        <v>-337900</v>
+        <v>-306200</v>
       </c>
       <c r="G72" s="3">
-        <v>-117600</v>
+        <v>-314900</v>
       </c>
       <c r="H72" s="3">
-        <v>50700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-324600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>48700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3120,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,31 +3609,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>131200</v>
+        <v>138800</v>
       </c>
       <c r="E76" s="3">
-        <v>116000</v>
+        <v>128400</v>
       </c>
       <c r="F76" s="3">
-        <v>105700</v>
+        <v>126000</v>
       </c>
       <c r="G76" s="3">
-        <v>53100</v>
+        <v>111400</v>
       </c>
       <c r="H76" s="3">
-        <v>53300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>101600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>51200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3284,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44073</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43707</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E81" s="3">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="F81" s="3">
-        <v>5500</v>
+        <v>8700</v>
       </c>
       <c r="G81" s="3">
-        <v>3700</v>
+        <v>7100</v>
       </c>
       <c r="H81" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5300</v>
       </c>
       <c r="O81" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,14 +3841,14 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
-        <v>7100</v>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="I83" s="3">
+        <v>6800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,28 +4103,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="E89" s="3">
-        <v>13500</v>
+        <v>10800</v>
       </c>
       <c r="F89" s="3">
-        <v>13900</v>
+        <v>18400</v>
       </c>
       <c r="G89" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+        <v>13000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>13300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -3707,17 +4141,23 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3747,14 +4189,14 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
-        <v>-10800</v>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="I91" s="3">
+        <v>-10400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -3765,17 +4207,23 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,28 +4310,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15700</v>
+        <v>-10100</v>
       </c>
       <c r="E94" s="3">
-        <v>-10100</v>
+        <v>-6900</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>-15100</v>
       </c>
       <c r="G94" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+        <v>-9700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -3888,17 +4348,23 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4564,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>24900</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4110,38 +4602,44 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3900</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
-        <v>2100</v>
+        <v>-2500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1300</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4151,38 +4649,44 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E102" s="3">
-        <v>6900</v>
+        <v>-4800</v>
       </c>
       <c r="F102" s="3">
-        <v>29700</v>
+        <v>8000</v>
       </c>
       <c r="G102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>28500</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4192,13 +4696,19 @@
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44073</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43707</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47800</v>
+        <v>49500</v>
       </c>
       <c r="E8" s="3">
-        <v>44300</v>
+        <v>46100</v>
       </c>
       <c r="F8" s="3">
-        <v>42900</v>
+        <v>42700</v>
       </c>
       <c r="G8" s="3">
-        <v>39300</v>
+        <v>41400</v>
       </c>
       <c r="H8" s="3">
-        <v>37400</v>
+        <v>37900</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>36100</v>
       </c>
       <c r="J8" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="E9" s="3">
-        <v>16900</v>
+        <v>15600</v>
       </c>
       <c r="F9" s="3">
-        <v>14900</v>
+        <v>16300</v>
       </c>
       <c r="G9" s="3">
-        <v>12400</v>
+        <v>14400</v>
       </c>
       <c r="H9" s="3">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="I9" s="3">
-        <v>12300</v>
+        <v>10500</v>
       </c>
       <c r="J9" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="E10" s="3">
-        <v>27300</v>
+        <v>30500</v>
       </c>
       <c r="F10" s="3">
-        <v>28000</v>
+        <v>26400</v>
       </c>
       <c r="G10" s="3">
         <v>27000</v>
       </c>
       <c r="H10" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="I10" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="J10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,46 +918,49 @@
         <v>2500</v>
       </c>
       <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
       </c>
       <c r="O12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>800</v>
       </c>
       <c r="Q12" s="3">
+        <v>800</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,14 +1027,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1027,8 +1047,8 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>34800</v>
+        <v>36900</v>
       </c>
       <c r="E17" s="3">
-        <v>35400</v>
+        <v>33600</v>
       </c>
       <c r="F17" s="3">
-        <v>30700</v>
+        <v>34100</v>
       </c>
       <c r="G17" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="H17" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="I17" s="3">
-        <v>28700</v>
+        <v>27000</v>
       </c>
       <c r="J17" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K17" s="3">
         <v>23300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>21700</v>
       </c>
       <c r="N17" s="3">
         <v>21700</v>
       </c>
       <c r="O17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="P17" s="3">
         <v>23300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="E18" s="3">
-        <v>8900</v>
+        <v>12500</v>
       </c>
       <c r="F18" s="3">
-        <v>12200</v>
+        <v>8600</v>
       </c>
       <c r="G18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
-        <v>11300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>9900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,16 +1245,17 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1233,57 +1267,60 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>21100</v>
+        <v>14000</v>
       </c>
       <c r="E21" s="3">
-        <v>34100</v>
+        <v>20300</v>
       </c>
       <c r="F21" s="3">
-        <v>13100</v>
+        <v>32900</v>
       </c>
       <c r="G21" s="3">
-        <v>11300</v>
+        <v>12600</v>
       </c>
       <c r="H21" s="3">
-        <v>15700</v>
+        <v>10900</v>
       </c>
       <c r="I21" s="3">
-        <v>15100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>15200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>14500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1291,23 +1328,26 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>30100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="E23" s="3">
-        <v>8800</v>
+        <v>12500</v>
       </c>
       <c r="F23" s="3">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G23" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O23" s="3">
         <v>10500</v>
       </c>
-      <c r="H23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>14100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>11300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>10500</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>9000</v>
       </c>
       <c r="F26" s="3">
-        <v>8800</v>
+        <v>5600</v>
       </c>
       <c r="G26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P26" s="3">
         <v>7300</v>
       </c>
-      <c r="H26" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7300</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E27" s="3">
-        <v>5700</v>
+        <v>8800</v>
       </c>
       <c r="F27" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="G27" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="H27" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,16 +1843,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1797,81 +1867,87 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E33" s="3">
-        <v>5700</v>
+        <v>8800</v>
       </c>
       <c r="F33" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="G33" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="H33" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="P33" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E35" s="3">
-        <v>5700</v>
+        <v>8800</v>
       </c>
       <c r="F35" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="G35" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="H35" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="P35" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44073</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43707</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2140,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51000</v>
+        <v>57600</v>
       </c>
       <c r="E41" s="3">
-        <v>43000</v>
+        <v>49200</v>
       </c>
       <c r="F41" s="3">
-        <v>47700</v>
+        <v>41500</v>
       </c>
       <c r="G41" s="3">
-        <v>39600</v>
+        <v>46000</v>
       </c>
       <c r="H41" s="3">
-        <v>33000</v>
+        <v>38200</v>
       </c>
       <c r="I41" s="3">
-        <v>5700</v>
+        <v>31900</v>
       </c>
       <c r="J41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2101,35 +2188,38 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2148,35 +2238,38 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20200</v>
+        <v>22700</v>
       </c>
       <c r="E43" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F43" s="3">
-        <v>22000</v>
+        <v>18300</v>
       </c>
       <c r="G43" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="H43" s="3">
-        <v>19500</v>
+        <v>21100</v>
       </c>
       <c r="I43" s="3">
-        <v>16900</v>
+        <v>18800</v>
       </c>
       <c r="J43" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K43" s="3">
         <v>15800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2195,35 +2288,38 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>13800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,26 +2350,26 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="3">
-        <v>56000</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J45" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2289,35 +2388,38 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75000</v>
+        <v>85100</v>
       </c>
       <c r="E46" s="3">
-        <v>66500</v>
+        <v>72400</v>
       </c>
       <c r="F46" s="3">
-        <v>70400</v>
+        <v>64200</v>
       </c>
       <c r="G46" s="3">
-        <v>61800</v>
+        <v>67900</v>
       </c>
       <c r="H46" s="3">
-        <v>52600</v>
+        <v>59600</v>
       </c>
       <c r="I46" s="3">
-        <v>79200</v>
+        <v>50800</v>
       </c>
       <c r="J46" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K46" s="3">
         <v>37200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2351,16 +2456,16 @@
         <v>1200</v>
       </c>
       <c r="G47" s="3">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="H47" s="3">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>1100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2374,8 +2479,8 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2383,35 +2488,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86300</v>
+        <v>83600</v>
       </c>
       <c r="E48" s="3">
-        <v>83000</v>
+        <v>83300</v>
       </c>
       <c r="F48" s="3">
-        <v>77800</v>
+        <v>80100</v>
       </c>
       <c r="G48" s="3">
-        <v>73000</v>
+        <v>75100</v>
       </c>
       <c r="H48" s="3">
-        <v>69500</v>
+        <v>70500</v>
       </c>
       <c r="I48" s="3">
-        <v>67900</v>
+        <v>67100</v>
       </c>
       <c r="J48" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K48" s="3">
         <v>53700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2430,35 +2538,38 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="E49" s="3">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="F49" s="3">
-        <v>31200</v>
+        <v>28500</v>
       </c>
       <c r="G49" s="3">
-        <v>25200</v>
+        <v>30100</v>
       </c>
       <c r="H49" s="3">
-        <v>23800</v>
+        <v>24400</v>
       </c>
       <c r="I49" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="J49" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K49" s="3">
         <v>22000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2688,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F52" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="H52" s="3">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2788,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>196800</v>
+        <v>205200</v>
       </c>
       <c r="E54" s="3">
-        <v>184400</v>
+        <v>189800</v>
       </c>
       <c r="F54" s="3">
-        <v>184600</v>
+        <v>177900</v>
       </c>
       <c r="G54" s="3">
-        <v>164700</v>
+        <v>178100</v>
       </c>
       <c r="H54" s="3">
-        <v>150400</v>
+        <v>158900</v>
       </c>
       <c r="I54" s="3">
-        <v>173900</v>
+        <v>145100</v>
       </c>
       <c r="J54" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K54" s="3">
         <v>119500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +2880,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16400</v>
+        <v>36300</v>
       </c>
       <c r="E57" s="3">
-        <v>5400</v>
+        <v>15900</v>
       </c>
       <c r="F57" s="3">
-        <v>16900</v>
+        <v>5200</v>
       </c>
       <c r="G57" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I57" s="3">
         <v>17100</v>
       </c>
-      <c r="H57" s="3">
-        <v>17800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5500</v>
-      </c>
       <c r="J57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,26 +2940,26 @@
         <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="F58" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="G58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>57600</v>
-      </c>
       <c r="J58" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2844,35 +2978,38 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="E59" s="3">
-        <v>27000</v>
+        <v>18100</v>
       </c>
       <c r="F59" s="3">
-        <v>16300</v>
+        <v>26000</v>
       </c>
       <c r="G59" s="3">
-        <v>13300</v>
+        <v>15700</v>
       </c>
       <c r="H59" s="3">
-        <v>15700</v>
+        <v>12900</v>
       </c>
       <c r="I59" s="3">
-        <v>22600</v>
+        <v>15100</v>
       </c>
       <c r="J59" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K59" s="3">
         <v>22300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2891,35 +3028,38 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39500</v>
+        <v>58600</v>
       </c>
       <c r="E60" s="3">
-        <v>37200</v>
+        <v>38100</v>
       </c>
       <c r="F60" s="3">
-        <v>36100</v>
+        <v>35900</v>
       </c>
       <c r="G60" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="H60" s="3">
-        <v>36200</v>
+        <v>32000</v>
       </c>
       <c r="I60" s="3">
-        <v>85600</v>
+        <v>35000</v>
       </c>
       <c r="J60" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2938,35 +3078,38 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="E61" s="3">
-        <v>8100</v>
+        <v>6700</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>7800</v>
       </c>
       <c r="G61" s="3">
-        <v>9700</v>
+        <v>11100</v>
       </c>
       <c r="H61" s="3">
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="I61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2985,35 +3128,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>8700</v>
       </c>
       <c r="E62" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F62" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="G62" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="H62" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="I62" s="3">
-        <v>7600</v>
+        <v>6500</v>
       </c>
       <c r="J62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3328,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57900</v>
+        <v>74800</v>
       </c>
       <c r="E66" s="3">
-        <v>56000</v>
+        <v>55900</v>
       </c>
       <c r="F66" s="3">
-        <v>58600</v>
+        <v>54000</v>
       </c>
       <c r="G66" s="3">
-        <v>53300</v>
+        <v>56500</v>
       </c>
       <c r="H66" s="3">
-        <v>48800</v>
+        <v>51400</v>
       </c>
       <c r="I66" s="3">
-        <v>122900</v>
+        <v>47100</v>
       </c>
       <c r="J66" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K66" s="3">
         <v>68300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-290400</v>
+        <v>-288000</v>
       </c>
       <c r="E72" s="3">
-        <v>-299600</v>
+        <v>-280200</v>
       </c>
       <c r="F72" s="3">
-        <v>-306200</v>
+        <v>-289000</v>
       </c>
       <c r="G72" s="3">
-        <v>-314900</v>
+        <v>-295400</v>
       </c>
       <c r="H72" s="3">
-        <v>-324600</v>
+        <v>-303800</v>
       </c>
       <c r="I72" s="3">
-        <v>-113000</v>
+        <v>-313200</v>
       </c>
       <c r="J72" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="K72" s="3">
         <v>48700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3798,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>138800</v>
+        <v>130500</v>
       </c>
       <c r="E76" s="3">
-        <v>128400</v>
+        <v>134000</v>
       </c>
       <c r="F76" s="3">
-        <v>126000</v>
+        <v>123800</v>
       </c>
       <c r="G76" s="3">
-        <v>111400</v>
+        <v>121600</v>
       </c>
       <c r="H76" s="3">
-        <v>101600</v>
+        <v>107500</v>
       </c>
       <c r="I76" s="3">
-        <v>51000</v>
+        <v>98000</v>
       </c>
       <c r="J76" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K76" s="3">
         <v>51200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44073</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43707</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="3">
-        <v>5700</v>
+        <v>8800</v>
       </c>
       <c r="F81" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="G81" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="H81" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="P81" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3847,11 +4046,11 @@
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,31 +4323,34 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19000</v>
+        <v>13800</v>
       </c>
       <c r="E89" s="3">
-        <v>10800</v>
+        <v>18400</v>
       </c>
       <c r="F89" s="3">
-        <v>18400</v>
+        <v>10500</v>
       </c>
       <c r="G89" s="3">
-        <v>13000</v>
+        <v>17700</v>
       </c>
       <c r="H89" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="I89" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>12900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -4147,8 +4364,8 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,11 +4416,11 @@
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -4213,8 +4434,8 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4543,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10100</v>
+        <v>-8100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15100</v>
+        <v>-6600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-14600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7600</v>
+        <v>-9400</v>
       </c>
       <c r="I94" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>-7300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -4354,8 +4584,8 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +4813,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-6300</v>
-      </c>
       <c r="F100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>1400</v>
-      </c>
       <c r="H100" s="3">
-        <v>23900</v>
+        <v>1300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>23100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -4608,8 +4854,8 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4617,32 +4863,35 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2500</v>
-      </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>-2400</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4655,8 +4904,8 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4664,31 +4913,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="E102" s="3">
-        <v>-4800</v>
+        <v>7800</v>
       </c>
       <c r="F102" s="3">
-        <v>8000</v>
+        <v>-4600</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="H102" s="3">
-        <v>28500</v>
+        <v>6400</v>
       </c>
       <c r="I102" s="3">
-        <v>600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>27500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -4702,13 +4954,16 @@
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44073</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43707</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49500</v>
+        <v>50100</v>
       </c>
       <c r="E8" s="3">
-        <v>46100</v>
+        <v>46300</v>
       </c>
       <c r="F8" s="3">
-        <v>42700</v>
+        <v>43200</v>
       </c>
       <c r="G8" s="3">
-        <v>41400</v>
+        <v>39900</v>
       </c>
       <c r="H8" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="I8" s="3">
-        <v>36100</v>
+        <v>35500</v>
       </c>
       <c r="J8" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K8" s="3">
         <v>35400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16700</v>
+        <v>18700</v>
       </c>
       <c r="E9" s="3">
         <v>15600</v>
       </c>
       <c r="F9" s="3">
-        <v>16300</v>
+        <v>14600</v>
       </c>
       <c r="G9" s="3">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="H9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="I9" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32800</v>
+        <v>31400</v>
       </c>
       <c r="E10" s="3">
-        <v>30500</v>
+        <v>30700</v>
       </c>
       <c r="F10" s="3">
-        <v>26400</v>
+        <v>28500</v>
       </c>
       <c r="G10" s="3">
-        <v>27000</v>
+        <v>24700</v>
       </c>
       <c r="H10" s="3">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="I10" s="3">
-        <v>25600</v>
+        <v>24300</v>
       </c>
       <c r="J10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,49 +931,52 @@
         <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G12" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>700</v>
       </c>
       <c r="P12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q12" s="3">
         <v>800</v>
       </c>
       <c r="R12" s="3">
+        <v>800</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,14 +1049,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1050,8 +1069,8 @@
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>36900</v>
+        <v>38800</v>
       </c>
       <c r="E17" s="3">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="F17" s="3">
-        <v>34100</v>
+        <v>31500</v>
       </c>
       <c r="G17" s="3">
-        <v>29600</v>
+        <v>31900</v>
       </c>
       <c r="H17" s="3">
         <v>27700</v>
       </c>
       <c r="I17" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="J17" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K17" s="3">
         <v>27700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>21700</v>
       </c>
       <c r="O17" s="3">
         <v>21700</v>
       </c>
       <c r="P17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>23300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12600</v>
+        <v>11300</v>
       </c>
       <c r="E18" s="3">
-        <v>12500</v>
+        <v>11800</v>
       </c>
       <c r="F18" s="3">
-        <v>8600</v>
+        <v>11700</v>
       </c>
       <c r="G18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="H18" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>9100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,19 +1278,20 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1270,84 +1303,90 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14000</v>
+        <v>9700</v>
       </c>
       <c r="E21" s="3">
-        <v>20300</v>
+        <v>13100</v>
       </c>
       <c r="F21" s="3">
-        <v>32900</v>
+        <v>19000</v>
       </c>
       <c r="G21" s="3">
-        <v>12600</v>
+        <v>30800</v>
       </c>
       <c r="H21" s="3">
-        <v>10900</v>
+        <v>11800</v>
       </c>
       <c r="I21" s="3">
-        <v>15200</v>
+        <v>10200</v>
       </c>
       <c r="J21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K21" s="3">
         <v>14500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>30100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12600</v>
+        <v>11600</v>
       </c>
       <c r="E23" s="3">
-        <v>12500</v>
+        <v>11800</v>
       </c>
       <c r="F23" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J23" s="3">
         <v>8400</v>
       </c>
-      <c r="G23" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,46 +1503,49 @@
         <v>3500</v>
       </c>
       <c r="F24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9000</v>
+        <v>7900</v>
       </c>
       <c r="E26" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F26" s="3">
-        <v>5600</v>
+        <v>8400</v>
       </c>
       <c r="G26" s="3">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="H26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O26" s="3">
         <v>7100</v>
       </c>
-      <c r="I26" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="E27" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F27" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="G27" s="3">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="H27" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="I27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>7800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,19 +1912,22 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1870,84 +1939,90 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="E33" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F33" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="G33" s="3">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="H33" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="I33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>7800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="E35" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F35" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="G35" s="3">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="H35" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="I35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>7800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44073</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43707</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>57600</v>
+        <v>44400</v>
       </c>
       <c r="E41" s="3">
-        <v>49200</v>
+        <v>53900</v>
       </c>
       <c r="F41" s="3">
-        <v>41500</v>
+        <v>46000</v>
       </c>
       <c r="G41" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="H41" s="3">
-        <v>38200</v>
+        <v>43000</v>
       </c>
       <c r="I41" s="3">
-        <v>31900</v>
+        <v>35800</v>
       </c>
       <c r="J41" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,11 +2291,11 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="3">
-        <v>700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3">
+        <v>600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -2214,15 +2303,15 @@
       <c r="I42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2241,38 +2330,41 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>25000</v>
       </c>
       <c r="E43" s="3">
-        <v>19500</v>
+        <v>21200</v>
       </c>
       <c r="F43" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="G43" s="3">
-        <v>21200</v>
+        <v>17100</v>
       </c>
       <c r="H43" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="I43" s="3">
-        <v>18800</v>
+        <v>19800</v>
       </c>
       <c r="J43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2291,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="E44" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="F44" s="3">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G44" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>13800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2341,38 +2436,41 @@
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="3">
+        <v>54100</v>
+      </c>
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="3">
-        <v>54100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2391,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85100</v>
+        <v>74400</v>
       </c>
       <c r="E46" s="3">
-        <v>72400</v>
+        <v>79700</v>
       </c>
       <c r="F46" s="3">
-        <v>64200</v>
+        <v>67700</v>
       </c>
       <c r="G46" s="3">
-        <v>67900</v>
+        <v>60100</v>
       </c>
       <c r="H46" s="3">
-        <v>59600</v>
+        <v>63600</v>
       </c>
       <c r="I46" s="3">
-        <v>50800</v>
+        <v>55800</v>
       </c>
       <c r="J46" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K46" s="3">
         <v>76400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2441,35 +2542,38 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G47" s="3">
         <v>1100</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2491,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83600</v>
+        <v>80200</v>
       </c>
       <c r="E48" s="3">
-        <v>83300</v>
+        <v>78200</v>
       </c>
       <c r="F48" s="3">
-        <v>80100</v>
+        <v>77900</v>
       </c>
       <c r="G48" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="H48" s="3">
-        <v>70500</v>
+        <v>70200</v>
       </c>
       <c r="I48" s="3">
-        <v>67100</v>
+        <v>65900</v>
       </c>
       <c r="J48" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K48" s="3">
         <v>65500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2541,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30300</v>
+        <v>29400</v>
       </c>
       <c r="E49" s="3">
-        <v>29000</v>
+        <v>28400</v>
       </c>
       <c r="F49" s="3">
-        <v>28500</v>
+        <v>27100</v>
       </c>
       <c r="G49" s="3">
-        <v>30100</v>
+        <v>26700</v>
       </c>
       <c r="H49" s="3">
-        <v>24400</v>
+        <v>28200</v>
       </c>
       <c r="I49" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="J49" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K49" s="3">
         <v>22100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="F52" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G52" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="J52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>205200</v>
+        <v>189900</v>
       </c>
       <c r="E54" s="3">
-        <v>189800</v>
+        <v>192000</v>
       </c>
       <c r="F54" s="3">
-        <v>177900</v>
+        <v>177600</v>
       </c>
       <c r="G54" s="3">
-        <v>178100</v>
+        <v>166400</v>
       </c>
       <c r="H54" s="3">
-        <v>158900</v>
+        <v>166700</v>
       </c>
       <c r="I54" s="3">
-        <v>145100</v>
+        <v>148700</v>
       </c>
       <c r="J54" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K54" s="3">
         <v>167800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36300</v>
+        <v>21600</v>
       </c>
       <c r="E57" s="3">
-        <v>15900</v>
+        <v>34000</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>14900</v>
       </c>
       <c r="G57" s="3">
-        <v>16300</v>
+        <v>4900</v>
       </c>
       <c r="H57" s="3">
-        <v>16500</v>
+        <v>15200</v>
       </c>
       <c r="I57" s="3">
-        <v>17100</v>
+        <v>15500</v>
       </c>
       <c r="J57" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,29 +3073,29 @@
         <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>4700</v>
+        <v>3900</v>
       </c>
       <c r="G58" s="3">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I58" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K58" s="3">
         <v>55500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2981,38 +3114,41 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="E59" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="F59" s="3">
-        <v>26000</v>
+        <v>16900</v>
       </c>
       <c r="G59" s="3">
-        <v>15700</v>
+        <v>24400</v>
       </c>
       <c r="H59" s="3">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="I59" s="3">
-        <v>15100</v>
+        <v>12000</v>
       </c>
       <c r="J59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K59" s="3">
         <v>21800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58600</v>
+        <v>44500</v>
       </c>
       <c r="E60" s="3">
-        <v>38100</v>
+        <v>54800</v>
       </c>
       <c r="F60" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="G60" s="3">
-        <v>34800</v>
+        <v>33600</v>
       </c>
       <c r="H60" s="3">
-        <v>32000</v>
+        <v>32600</v>
       </c>
       <c r="I60" s="3">
-        <v>35000</v>
+        <v>29900</v>
       </c>
       <c r="J60" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K60" s="3">
         <v>82600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3081,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="F61" s="3">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="G61" s="3">
-        <v>11100</v>
+        <v>7300</v>
       </c>
       <c r="H61" s="3">
-        <v>9400</v>
+        <v>10400</v>
       </c>
       <c r="I61" s="3">
-        <v>4600</v>
+        <v>8800</v>
       </c>
       <c r="J61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E62" s="3">
-        <v>9500</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
         <v>8900</v>
       </c>
       <c r="G62" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H62" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="I62" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="J62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74800</v>
+        <v>60000</v>
       </c>
       <c r="E66" s="3">
-        <v>55900</v>
+        <v>70000</v>
       </c>
       <c r="F66" s="3">
-        <v>54000</v>
+        <v>52300</v>
       </c>
       <c r="G66" s="3">
-        <v>56500</v>
+        <v>50500</v>
       </c>
       <c r="H66" s="3">
-        <v>51400</v>
+        <v>52900</v>
       </c>
       <c r="I66" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="J66" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K66" s="3">
         <v>118600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-288000</v>
+        <v>-262500</v>
       </c>
       <c r="E72" s="3">
-        <v>-280200</v>
+        <v>-269500</v>
       </c>
       <c r="F72" s="3">
-        <v>-289000</v>
+        <v>-262200</v>
       </c>
       <c r="G72" s="3">
-        <v>-295400</v>
+        <v>-270400</v>
       </c>
       <c r="H72" s="3">
-        <v>-303800</v>
+        <v>-276500</v>
       </c>
       <c r="I72" s="3">
-        <v>-313200</v>
+        <v>-284300</v>
       </c>
       <c r="J72" s="3">
+        <v>-293100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-109000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130500</v>
+        <v>129900</v>
       </c>
       <c r="E76" s="3">
-        <v>134000</v>
+        <v>122100</v>
       </c>
       <c r="F76" s="3">
-        <v>123800</v>
+        <v>125400</v>
       </c>
       <c r="G76" s="3">
-        <v>121600</v>
+        <v>115900</v>
       </c>
       <c r="H76" s="3">
-        <v>107500</v>
+        <v>113800</v>
       </c>
       <c r="I76" s="3">
-        <v>98000</v>
+        <v>100600</v>
       </c>
       <c r="J76" s="3">
+        <v>91700</v>
+      </c>
+      <c r="K76" s="3">
         <v>49200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44073</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43707</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>7800</v>
       </c>
       <c r="E81" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F81" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="G81" s="3">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="H81" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="I81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>7800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,12 +4247,12 @@
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4067,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,35 +4539,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13800</v>
+        <v>15400</v>
       </c>
       <c r="E89" s="3">
-        <v>18400</v>
+        <v>12900</v>
       </c>
       <c r="F89" s="3">
-        <v>10500</v>
+        <v>17200</v>
       </c>
       <c r="G89" s="3">
-        <v>17700</v>
+        <v>9800</v>
       </c>
       <c r="H89" s="3">
-        <v>12600</v>
+        <v>16600</v>
       </c>
       <c r="I89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4367,8 +4583,8 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4419,12 +4639,12 @@
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4437,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,35 +4772,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8100</v>
+        <v>-6700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9700</v>
+        <v>-7600</v>
       </c>
       <c r="F94" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="G94" s="3">
-        <v>-14600</v>
+        <v>-6200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9400</v>
+        <v>-13600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7300</v>
+        <v>-8800</v>
       </c>
       <c r="J94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4587,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>23100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4857,8 +5102,8 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4866,35 +5111,38 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4907,8 +5155,8 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4916,35 +5164,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8500</v>
+        <v>-9800</v>
       </c>
       <c r="E102" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F102" s="3">
-        <v>-4600</v>
+        <v>7300</v>
       </c>
       <c r="G102" s="3">
-        <v>7700</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>27500</v>
+        <v>6000</v>
       </c>
       <c r="J102" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4957,13 +5208,16 @@
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44073</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43707</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50100</v>
+        <v>47400</v>
       </c>
       <c r="E8" s="3">
-        <v>46300</v>
+        <v>48100</v>
       </c>
       <c r="F8" s="3">
-        <v>43200</v>
+        <v>44400</v>
       </c>
       <c r="G8" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="H8" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="I8" s="3">
-        <v>35500</v>
+        <v>37200</v>
       </c>
       <c r="J8" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K8" s="3">
         <v>33700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18700</v>
+        <v>16900</v>
       </c>
       <c r="E9" s="3">
-        <v>15600</v>
+        <v>17900</v>
       </c>
       <c r="F9" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="3">
-        <v>15300</v>
+        <v>14000</v>
       </c>
       <c r="H9" s="3">
-        <v>13500</v>
+        <v>14700</v>
       </c>
       <c r="I9" s="3">
-        <v>11200</v>
+        <v>12900</v>
       </c>
       <c r="J9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31400</v>
+        <v>30500</v>
       </c>
       <c r="E10" s="3">
-        <v>30700</v>
+        <v>30200</v>
       </c>
       <c r="F10" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="G10" s="3">
-        <v>24700</v>
+        <v>27400</v>
       </c>
       <c r="H10" s="3">
-        <v>25300</v>
+        <v>23700</v>
       </c>
       <c r="I10" s="3">
         <v>24300</v>
       </c>
       <c r="J10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K10" s="3">
         <v>23900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2000</v>
-      </c>
       <c r="I12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>700</v>
       </c>
       <c r="Q12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R12" s="3">
         <v>800</v>
       </c>
       <c r="S12" s="3">
+        <v>800</v>
+      </c>
+      <c r="T12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,14 +1072,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1072,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>38800</v>
+        <v>35100</v>
       </c>
       <c r="E17" s="3">
-        <v>34500</v>
+        <v>37300</v>
       </c>
       <c r="F17" s="3">
-        <v>31500</v>
+        <v>33200</v>
       </c>
       <c r="G17" s="3">
-        <v>31900</v>
+        <v>30200</v>
       </c>
       <c r="H17" s="3">
+        <v>30700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>25200</v>
+      </c>
+      <c r="L17" s="3">
         <v>27700</v>
       </c>
-      <c r="I17" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>25200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>27700</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>21700</v>
       </c>
       <c r="P17" s="3">
         <v>21700</v>
       </c>
       <c r="Q17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="R17" s="3">
         <v>23300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F18" s="3">
         <v>11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,13 +1322,13 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1306,87 +1340,93 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9700</v>
+        <v>12600</v>
       </c>
       <c r="E21" s="3">
-        <v>13100</v>
+        <v>9300</v>
       </c>
       <c r="F21" s="3">
-        <v>19000</v>
+        <v>12600</v>
       </c>
       <c r="G21" s="3">
-        <v>30800</v>
+        <v>18300</v>
       </c>
       <c r="H21" s="3">
-        <v>11800</v>
+        <v>29600</v>
       </c>
       <c r="I21" s="3">
-        <v>10200</v>
+        <v>11300</v>
       </c>
       <c r="J21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K21" s="3">
         <v>14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>30100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11600</v>
+        <v>12500</v>
       </c>
       <c r="E23" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M23" s="3">
         <v>11800</v>
       </c>
-      <c r="F23" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>11800</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="3">
         <v>3500</v>
@@ -1506,46 +1552,49 @@
         <v>3300</v>
       </c>
       <c r="G24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="R24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="E26" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>7800</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,13 +1994,13 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1942,87 +2012,93 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>7800</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>7800</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44073</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43707</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44400</v>
+        <v>50000</v>
       </c>
       <c r="E41" s="3">
-        <v>53900</v>
+        <v>42600</v>
       </c>
       <c r="F41" s="3">
-        <v>46000</v>
+        <v>51800</v>
       </c>
       <c r="G41" s="3">
-        <v>38800</v>
+        <v>44200</v>
       </c>
       <c r="H41" s="3">
-        <v>43000</v>
+        <v>37200</v>
       </c>
       <c r="I41" s="3">
-        <v>35800</v>
+        <v>41300</v>
       </c>
       <c r="J41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K41" s="3">
         <v>29800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2294,27 +2384,27 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25000</v>
+        <v>21600</v>
       </c>
       <c r="E43" s="3">
-        <v>21200</v>
+        <v>24000</v>
       </c>
       <c r="F43" s="3">
-        <v>18200</v>
+        <v>20400</v>
       </c>
       <c r="G43" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="H43" s="3">
-        <v>19800</v>
+        <v>16400</v>
       </c>
       <c r="I43" s="3">
-        <v>19800</v>
+        <v>19000</v>
       </c>
       <c r="J43" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K43" s="3">
         <v>17600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="F44" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="H44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>13800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,32 +2547,32 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="3">
         <v>54100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74400</v>
+        <v>75700</v>
       </c>
       <c r="E46" s="3">
-        <v>79700</v>
+        <v>71400</v>
       </c>
       <c r="F46" s="3">
-        <v>67700</v>
+        <v>76500</v>
       </c>
       <c r="G46" s="3">
-        <v>60100</v>
+        <v>65000</v>
       </c>
       <c r="H46" s="3">
-        <v>63600</v>
+        <v>57700</v>
       </c>
       <c r="I46" s="3">
-        <v>55800</v>
+        <v>61000</v>
       </c>
       <c r="J46" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K46" s="3">
         <v>47500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,13 +2647,16 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
         <v>1100</v>
@@ -2563,20 +2668,20 @@
         <v>1100</v>
       </c>
       <c r="H47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
-        <v>2600</v>
-      </c>
       <c r="J47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80200</v>
+        <v>82300</v>
       </c>
       <c r="E48" s="3">
-        <v>78200</v>
+        <v>77000</v>
       </c>
       <c r="F48" s="3">
-        <v>77900</v>
+        <v>75100</v>
       </c>
       <c r="G48" s="3">
-        <v>74900</v>
+        <v>74800</v>
       </c>
       <c r="H48" s="3">
-        <v>70200</v>
+        <v>71900</v>
       </c>
       <c r="I48" s="3">
-        <v>65900</v>
+        <v>67400</v>
       </c>
       <c r="J48" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K48" s="3">
         <v>62700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E49" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="F49" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I49" s="3">
         <v>27100</v>
       </c>
-      <c r="G49" s="3">
-        <v>26700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>22800</v>
-      </c>
       <c r="J49" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K49" s="3">
         <v>21500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F52" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="G52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H52" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189900</v>
+        <v>194000</v>
       </c>
       <c r="E54" s="3">
-        <v>192000</v>
+        <v>182300</v>
       </c>
       <c r="F54" s="3">
-        <v>177600</v>
+        <v>184400</v>
       </c>
       <c r="G54" s="3">
-        <v>166400</v>
+        <v>170500</v>
       </c>
       <c r="H54" s="3">
-        <v>166700</v>
+        <v>159800</v>
       </c>
       <c r="I54" s="3">
-        <v>148700</v>
+        <v>160000</v>
       </c>
       <c r="J54" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K54" s="3">
         <v>135800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21600</v>
+        <v>19300</v>
       </c>
       <c r="E57" s="3">
-        <v>34000</v>
+        <v>20700</v>
       </c>
       <c r="F57" s="3">
-        <v>14900</v>
+        <v>32600</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>14300</v>
       </c>
       <c r="H57" s="3">
-        <v>15200</v>
+        <v>4700</v>
       </c>
       <c r="I57" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="J57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K57" s="3">
         <v>16000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,41 +3195,44 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="E58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>55500</v>
+      </c>
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>55500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18600</v>
+        <v>17600</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>17900</v>
       </c>
       <c r="F59" s="3">
-        <v>16900</v>
+        <v>16200</v>
       </c>
       <c r="G59" s="3">
-        <v>24400</v>
+        <v>16200</v>
       </c>
       <c r="H59" s="3">
-        <v>14700</v>
+        <v>23400</v>
       </c>
       <c r="I59" s="3">
-        <v>12000</v>
+        <v>14100</v>
       </c>
       <c r="J59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44500</v>
+        <v>40800</v>
       </c>
       <c r="E60" s="3">
-        <v>54800</v>
+        <v>42800</v>
       </c>
       <c r="F60" s="3">
-        <v>35700</v>
+        <v>52600</v>
       </c>
       <c r="G60" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="H60" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="I60" s="3">
-        <v>29900</v>
+        <v>31300</v>
       </c>
       <c r="J60" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K60" s="3">
         <v>32700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,32 +3375,32 @@
         <v>5500</v>
       </c>
       <c r="E61" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="F61" s="3">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="G61" s="3">
-        <v>7300</v>
+        <v>6000</v>
       </c>
       <c r="H61" s="3">
-        <v>10400</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="3">
-        <v>8800</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="E62" s="3">
         <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="G62" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H62" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="I62" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="J62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60000</v>
+        <v>56400</v>
       </c>
       <c r="E66" s="3">
-        <v>70000</v>
+        <v>57600</v>
       </c>
       <c r="F66" s="3">
-        <v>52300</v>
+        <v>67200</v>
       </c>
       <c r="G66" s="3">
-        <v>50500</v>
+        <v>50200</v>
       </c>
       <c r="H66" s="3">
-        <v>52900</v>
+        <v>48500</v>
       </c>
       <c r="I66" s="3">
-        <v>48100</v>
+        <v>50800</v>
       </c>
       <c r="J66" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K66" s="3">
         <v>44100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>118600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-262500</v>
+        <v>-244500</v>
       </c>
       <c r="E72" s="3">
-        <v>-269500</v>
+        <v>-252000</v>
       </c>
       <c r="F72" s="3">
-        <v>-262200</v>
+        <v>-258700</v>
       </c>
       <c r="G72" s="3">
-        <v>-270400</v>
+        <v>-251700</v>
       </c>
       <c r="H72" s="3">
-        <v>-276500</v>
+        <v>-259700</v>
       </c>
       <c r="I72" s="3">
-        <v>-284300</v>
+        <v>-265400</v>
       </c>
       <c r="J72" s="3">
+        <v>-272900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-293100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>129900</v>
+        <v>137600</v>
       </c>
       <c r="E76" s="3">
-        <v>122100</v>
+        <v>124700</v>
       </c>
       <c r="F76" s="3">
-        <v>125400</v>
+        <v>117200</v>
       </c>
       <c r="G76" s="3">
-        <v>115900</v>
+        <v>120300</v>
       </c>
       <c r="H76" s="3">
-        <v>113800</v>
+        <v>111300</v>
       </c>
       <c r="I76" s="3">
-        <v>100600</v>
+        <v>109200</v>
       </c>
       <c r="J76" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K76" s="3">
         <v>91700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44073</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43707</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>7800</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,38 +4422,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="E89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
-        <v>17200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>11800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>12100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>12900</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-596500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-186200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,38 +5002,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6700</v>
+        <v>-9400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7600</v>
+        <v>-6400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9100</v>
+        <v>-7300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6200</v>
+        <v>-8700</v>
       </c>
       <c r="H94" s="3">
-        <v>-13600</v>
+        <v>-5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8800</v>
+        <v>-13100</v>
       </c>
       <c r="J94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18800</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,38 +5360,41 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>3400</v>
-      </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>3400</v>
-      </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="J101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9800</v>
+        <v>7600</v>
       </c>
       <c r="E102" s="3">
-        <v>7900</v>
+        <v>-9400</v>
       </c>
       <c r="F102" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4300</v>
+        <v>7000</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>-4200</v>
       </c>
       <c r="I102" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="J102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K102" s="3">
         <v>25700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44073</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43707</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47400</v>
+        <v>52800</v>
       </c>
       <c r="E8" s="3">
-        <v>48100</v>
+        <v>48600</v>
       </c>
       <c r="F8" s="3">
-        <v>44400</v>
+        <v>49300</v>
       </c>
       <c r="G8" s="3">
-        <v>41400</v>
+        <v>45500</v>
       </c>
       <c r="H8" s="3">
-        <v>38400</v>
+        <v>42500</v>
       </c>
       <c r="I8" s="3">
-        <v>37200</v>
+        <v>39300</v>
       </c>
       <c r="J8" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K8" s="3">
         <v>34100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16900</v>
+        <v>19600</v>
       </c>
       <c r="E9" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="F9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12900</v>
-      </c>
       <c r="J9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K9" s="3">
         <v>10700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30500</v>
+        <v>33200</v>
       </c>
       <c r="E10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30900</v>
+      </c>
+      <c r="G10" s="3">
         <v>30200</v>
       </c>
-      <c r="F10" s="3">
-        <v>29400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>27400</v>
-      </c>
       <c r="H10" s="3">
-        <v>23700</v>
+        <v>28100</v>
       </c>
       <c r="I10" s="3">
         <v>24300</v>
       </c>
       <c r="J10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K10" s="3">
         <v>23400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="3">
         <v>2400</v>
       </c>
       <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
         <v>2300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2100</v>
       </c>
       <c r="H12" s="3">
         <v>2200</v>
       </c>
       <c r="I12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>700</v>
       </c>
       <c r="Q12" s="3">
         <v>700</v>
       </c>
       <c r="R12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S12" s="3">
         <v>800</v>
       </c>
       <c r="T12" s="3">
+        <v>800</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1075,14 +1095,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>35100</v>
+        <v>40900</v>
       </c>
       <c r="E17" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="F17" s="3">
-        <v>33200</v>
+        <v>38200</v>
       </c>
       <c r="G17" s="3">
-        <v>30200</v>
+        <v>34000</v>
       </c>
       <c r="H17" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="I17" s="3">
-        <v>26600</v>
+        <v>31400</v>
       </c>
       <c r="J17" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K17" s="3">
         <v>24900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>21700</v>
       </c>
       <c r="Q17" s="3">
         <v>21700</v>
       </c>
       <c r="R17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="S17" s="3">
         <v>23300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="E18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P18" s="3">
         <v>11300</v>
       </c>
-      <c r="G18" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="Q18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="S18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="T18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="U18" s="3">
         <v>9200</v>
       </c>
-      <c r="K18" s="3">
-        <v>8500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,25 +1346,26 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1343,90 +1377,96 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12600</v>
+        <v>20900</v>
       </c>
       <c r="E21" s="3">
-        <v>9300</v>
+        <v>38600</v>
       </c>
       <c r="F21" s="3">
-        <v>12600</v>
+        <v>9600</v>
       </c>
       <c r="G21" s="3">
-        <v>18300</v>
+        <v>12900</v>
       </c>
       <c r="H21" s="3">
-        <v>29600</v>
+        <v>18700</v>
       </c>
       <c r="I21" s="3">
-        <v>11300</v>
+        <v>30300</v>
       </c>
       <c r="J21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K21" s="3">
         <v>9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>30100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
-        <v>11100</v>
+        <v>12900</v>
       </c>
       <c r="F23" s="3">
         <v>11400</v>
       </c>
       <c r="G23" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H23" s="3">
-        <v>7600</v>
+        <v>11500</v>
       </c>
       <c r="I23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
-      <c r="J23" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>7500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>11800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>14100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>9800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>10500</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8000</v>
-      </c>
       <c r="G26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>7100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>7700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>7300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>8100</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="E27" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F27" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H27" s="3">
-        <v>5000</v>
+        <v>8100</v>
       </c>
       <c r="I27" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="J27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,25 +2052,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2015,90 +2085,96 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="E33" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F33" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G33" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H33" s="3">
-        <v>5000</v>
+        <v>8100</v>
       </c>
       <c r="I33" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="J33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="E35" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F35" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G35" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H35" s="3">
-        <v>5000</v>
+        <v>8100</v>
       </c>
       <c r="I35" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="J35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44073</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43707</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50000</v>
+        <v>60300</v>
       </c>
       <c r="E41" s="3">
-        <v>42600</v>
+        <v>51200</v>
       </c>
       <c r="F41" s="3">
-        <v>51800</v>
+        <v>43700</v>
       </c>
       <c r="G41" s="3">
-        <v>44200</v>
+        <v>53100</v>
       </c>
       <c r="H41" s="3">
-        <v>37200</v>
+        <v>45300</v>
       </c>
       <c r="I41" s="3">
-        <v>41300</v>
+        <v>38200</v>
       </c>
       <c r="J41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K41" s="3">
         <v>34400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,27 +2477,27 @@
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,44 +2516,47 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21600</v>
+        <v>24000</v>
       </c>
       <c r="E43" s="3">
-        <v>24000</v>
+        <v>22100</v>
       </c>
       <c r="F43" s="3">
-        <v>20400</v>
+        <v>24600</v>
       </c>
       <c r="G43" s="3">
-        <v>17500</v>
+        <v>20900</v>
       </c>
       <c r="H43" s="3">
-        <v>16400</v>
+        <v>17900</v>
       </c>
       <c r="I43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19000</v>
       </c>
-      <c r="J43" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,44 +2575,47 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="E44" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="G44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>13800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,44 +2634,47 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F45" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3">
         <v>54100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75700</v>
+        <v>89500</v>
       </c>
       <c r="E46" s="3">
-        <v>71400</v>
+        <v>77500</v>
       </c>
       <c r="F46" s="3">
-        <v>76500</v>
+        <v>73200</v>
       </c>
       <c r="G46" s="3">
-        <v>65000</v>
+        <v>78400</v>
       </c>
       <c r="H46" s="3">
-        <v>57700</v>
+        <v>66600</v>
       </c>
       <c r="I46" s="3">
-        <v>61000</v>
+        <v>59100</v>
       </c>
       <c r="J46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K46" s="3">
         <v>53600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2764,7 @@
         <v>1400</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -2671,20 +2776,20 @@
         <v>1100</v>
       </c>
       <c r="I47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2697,8 +2802,8 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2706,44 +2811,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>82300</v>
+        <v>91500</v>
       </c>
       <c r="E48" s="3">
-        <v>77000</v>
+        <v>84400</v>
       </c>
       <c r="F48" s="3">
-        <v>75100</v>
+        <v>78900</v>
       </c>
       <c r="G48" s="3">
-        <v>74800</v>
+        <v>76900</v>
       </c>
       <c r="H48" s="3">
-        <v>71900</v>
+        <v>76600</v>
       </c>
       <c r="I48" s="3">
-        <v>67400</v>
+        <v>73700</v>
       </c>
       <c r="J48" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K48" s="3">
         <v>63300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,44 +2870,47 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30300</v>
+        <v>33300</v>
       </c>
       <c r="E49" s="3">
-        <v>28200</v>
+        <v>31000</v>
       </c>
       <c r="F49" s="3">
-        <v>27200</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>26000</v>
+        <v>27900</v>
       </c>
       <c r="H49" s="3">
-        <v>25600</v>
+        <v>26700</v>
       </c>
       <c r="I49" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K49" s="3">
         <v>21900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,35 +3059,35 @@
         <v>4400</v>
       </c>
       <c r="E52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3500</v>
-      </c>
       <c r="J52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194000</v>
+        <v>220100</v>
       </c>
       <c r="E54" s="3">
-        <v>182300</v>
+        <v>198800</v>
       </c>
       <c r="F54" s="3">
-        <v>184400</v>
+        <v>186800</v>
       </c>
       <c r="G54" s="3">
-        <v>170500</v>
+        <v>188900</v>
       </c>
       <c r="H54" s="3">
-        <v>159800</v>
+        <v>174700</v>
       </c>
       <c r="I54" s="3">
-        <v>160000</v>
+        <v>163700</v>
       </c>
       <c r="J54" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K54" s="3">
         <v>142800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>135800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19300</v>
+        <v>48900</v>
       </c>
       <c r="E57" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="F57" s="3">
-        <v>32600</v>
+        <v>21200</v>
       </c>
       <c r="G57" s="3">
-        <v>14300</v>
+        <v>33400</v>
       </c>
       <c r="H57" s="3">
-        <v>4700</v>
+        <v>14600</v>
       </c>
       <c r="I57" s="3">
-        <v>14600</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,44 +3329,47 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3800</v>
-      </c>
       <c r="H58" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,44 +3388,47 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17600</v>
+        <v>21400</v>
       </c>
       <c r="E59" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="F59" s="3">
-        <v>16200</v>
+        <v>18300</v>
       </c>
       <c r="G59" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="H59" s="3">
-        <v>23400</v>
+        <v>16600</v>
       </c>
       <c r="I59" s="3">
-        <v>14100</v>
+        <v>24000</v>
       </c>
       <c r="J59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,44 +3447,47 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40800</v>
+        <v>73700</v>
       </c>
       <c r="E60" s="3">
-        <v>42800</v>
+        <v>41800</v>
       </c>
       <c r="F60" s="3">
-        <v>52600</v>
+        <v>43800</v>
       </c>
       <c r="G60" s="3">
-        <v>34300</v>
+        <v>53900</v>
       </c>
       <c r="H60" s="3">
-        <v>32300</v>
+        <v>35100</v>
       </c>
       <c r="I60" s="3">
-        <v>31300</v>
+        <v>33100</v>
       </c>
       <c r="J60" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K60" s="3">
         <v>28700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,44 +3506,47 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="E61" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="F61" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G61" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="H61" s="3">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="I61" s="3">
-        <v>10000</v>
+        <v>7200</v>
       </c>
       <c r="J61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3565,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="E62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I62" s="3">
         <v>8200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7900</v>
       </c>
-      <c r="G62" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56400</v>
+        <v>92500</v>
       </c>
       <c r="E66" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F66" s="3">
-        <v>67200</v>
+        <v>59000</v>
       </c>
       <c r="G66" s="3">
-        <v>50200</v>
+        <v>68800</v>
       </c>
       <c r="H66" s="3">
-        <v>48500</v>
+        <v>51400</v>
       </c>
       <c r="I66" s="3">
-        <v>50800</v>
+        <v>49700</v>
       </c>
       <c r="J66" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K66" s="3">
         <v>46200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>118600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-244500</v>
+        <v>-268600</v>
       </c>
       <c r="E72" s="3">
-        <v>-252000</v>
+        <v>-250500</v>
       </c>
       <c r="F72" s="3">
-        <v>-258700</v>
+        <v>-258200</v>
       </c>
       <c r="G72" s="3">
-        <v>-251700</v>
+        <v>-265100</v>
       </c>
       <c r="H72" s="3">
-        <v>-259700</v>
+        <v>-257900</v>
       </c>
       <c r="I72" s="3">
-        <v>-265400</v>
+        <v>-266000</v>
       </c>
       <c r="J72" s="3">
+        <v>-271900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-272900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-293100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>137600</v>
+        <v>127600</v>
       </c>
       <c r="E76" s="3">
-        <v>124700</v>
+        <v>141000</v>
       </c>
       <c r="F76" s="3">
-        <v>117200</v>
+        <v>127800</v>
       </c>
       <c r="G76" s="3">
-        <v>120300</v>
+        <v>120100</v>
       </c>
       <c r="H76" s="3">
-        <v>111300</v>
+        <v>123300</v>
       </c>
       <c r="I76" s="3">
-        <v>109200</v>
+        <v>114000</v>
       </c>
       <c r="J76" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K76" s="3">
         <v>96600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44073</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43707</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="E81" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F81" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G81" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H81" s="3">
-        <v>5000</v>
+        <v>8100</v>
       </c>
       <c r="I81" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="J81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,15 +4648,15 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>6600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,41 +4973,44 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="E89" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F89" s="3">
-        <v>12400</v>
+        <v>15200</v>
       </c>
       <c r="G89" s="3">
-        <v>16500</v>
+        <v>12700</v>
       </c>
       <c r="H89" s="3">
-        <v>9400</v>
+        <v>16900</v>
       </c>
       <c r="I89" s="3">
-        <v>15900</v>
+        <v>9600</v>
       </c>
       <c r="J89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K89" s="3">
         <v>11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
@@ -4806,8 +5023,8 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,20 +5057,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-626300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-596500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-186200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4863,15 +5084,15 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4884,8 +5105,8 @@
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5232,44 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9400</v>
+        <v>-10500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6400</v>
+        <v>-10000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7300</v>
+        <v>-6600</v>
       </c>
       <c r="G94" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="H94" s="3">
-        <v>-5900</v>
+        <v>-8900</v>
       </c>
       <c r="I94" s="3">
-        <v>-13100</v>
+        <v>-6100</v>
       </c>
       <c r="J94" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5052,8 +5282,8 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5550,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
-        <v>-18100</v>
+        <v>-1000</v>
       </c>
       <c r="F100" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5354,8 +5600,8 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,41 +5609,44 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="E101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
-        <v>1100</v>
-      </c>
       <c r="H101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
-        <v>3200</v>
-      </c>
       <c r="J101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5410,8 +5659,8 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,41 +5668,44 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7600</v>
+        <v>9100</v>
       </c>
       <c r="E102" s="3">
-        <v>-9400</v>
+        <v>7800</v>
       </c>
       <c r="F102" s="3">
-        <v>7600</v>
+        <v>-9700</v>
       </c>
       <c r="G102" s="3">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4200</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>7000</v>
+        <v>-4300</v>
       </c>
       <c r="J102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5466,13 +5718,16 @@
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KARO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>KARO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44073</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43707</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52800</v>
+        <v>56700</v>
       </c>
       <c r="E8" s="3">
-        <v>48600</v>
+        <v>54300</v>
       </c>
       <c r="F8" s="3">
-        <v>49300</v>
+        <v>49900</v>
       </c>
       <c r="G8" s="3">
-        <v>45500</v>
+        <v>50700</v>
       </c>
       <c r="H8" s="3">
-        <v>42500</v>
+        <v>46800</v>
       </c>
       <c r="I8" s="3">
-        <v>39300</v>
+        <v>43700</v>
       </c>
       <c r="J8" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K8" s="3">
         <v>38100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19600</v>
+        <v>20700</v>
       </c>
       <c r="E9" s="3">
-        <v>17300</v>
+        <v>20200</v>
       </c>
       <c r="F9" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="G9" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J9" s="3">
         <v>15400</v>
       </c>
-      <c r="H9" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33200</v>
+        <v>36000</v>
       </c>
       <c r="E10" s="3">
-        <v>31300</v>
+        <v>34100</v>
       </c>
       <c r="F10" s="3">
-        <v>30900</v>
+        <v>32200</v>
       </c>
       <c r="G10" s="3">
-        <v>30200</v>
+        <v>31800</v>
       </c>
       <c r="H10" s="3">
-        <v>28100</v>
+        <v>31000</v>
       </c>
       <c r="I10" s="3">
-        <v>24300</v>
+        <v>28900</v>
       </c>
       <c r="J10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K10" s="3">
         <v>24900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F12" s="3">
         <v>2500</v>
       </c>
       <c r="G12" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I12" s="3">
         <v>2300</v>
       </c>
       <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>700</v>
       </c>
       <c r="R12" s="3">
         <v>700</v>
       </c>
       <c r="S12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T12" s="3">
         <v>800</v>
       </c>
       <c r="U12" s="3">
+        <v>800</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,16 +1085,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1098,14 +1118,14 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>40900</v>
+        <v>43200</v>
       </c>
       <c r="E17" s="3">
-        <v>36000</v>
+        <v>42100</v>
       </c>
       <c r="F17" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="G17" s="3">
-        <v>34000</v>
+        <v>39300</v>
       </c>
       <c r="H17" s="3">
-        <v>30900</v>
+        <v>34900</v>
       </c>
       <c r="I17" s="3">
-        <v>31400</v>
+        <v>31800</v>
       </c>
       <c r="J17" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K17" s="3">
         <v>27300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>21700</v>
       </c>
       <c r="R17" s="3">
         <v>21700</v>
       </c>
       <c r="S17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="T17" s="3">
         <v>23300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H18" s="3">
         <v>11900</v>
       </c>
-      <c r="E18" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="I18" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="T18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="V18" s="3">
         <v>9200</v>
       </c>
-      <c r="L18" s="3">
-        <v>8500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>7800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>11800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>11300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>9900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>10700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>11500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,28 +1380,29 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1380,93 +1414,99 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>20900</v>
+        <v>14000</v>
       </c>
       <c r="E21" s="3">
-        <v>38600</v>
+        <v>21500</v>
       </c>
       <c r="F21" s="3">
-        <v>9600</v>
+        <v>39600</v>
       </c>
       <c r="G21" s="3">
-        <v>12900</v>
+        <v>9800</v>
       </c>
       <c r="H21" s="3">
-        <v>18700</v>
+        <v>13200</v>
       </c>
       <c r="I21" s="3">
-        <v>30300</v>
+        <v>19200</v>
       </c>
       <c r="J21" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>30100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>13800</v>
       </c>
       <c r="E23" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="F23" s="3">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="H23" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I23" s="3">
-        <v>7800</v>
+        <v>11800</v>
       </c>
       <c r="J23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="E24" s="3">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="I24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8600</v>
+        <v>9700</v>
       </c>
       <c r="E26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K27" s="3">
         <v>7700</v>
       </c>
-      <c r="F27" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,28 +2122,31 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2088,93 +2158,99 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K33" s="3">
         <v>7700</v>
       </c>
-      <c r="F33" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K35" s="3">
         <v>7700</v>
       </c>
-      <c r="F35" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44073</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43707</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>60300</v>
+        <v>35500</v>
       </c>
       <c r="E41" s="3">
-        <v>51200</v>
+        <v>62000</v>
       </c>
       <c r="F41" s="3">
-        <v>43700</v>
+        <v>52600</v>
       </c>
       <c r="G41" s="3">
-        <v>53100</v>
+        <v>44900</v>
       </c>
       <c r="H41" s="3">
-        <v>45300</v>
+        <v>54500</v>
       </c>
       <c r="I41" s="3">
-        <v>38200</v>
+        <v>46500</v>
       </c>
       <c r="J41" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K41" s="3">
         <v>42300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2480,27 +2570,27 @@
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="3">
         <v>600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2519,47 +2609,50 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24000</v>
+        <v>26700</v>
       </c>
       <c r="E43" s="3">
-        <v>22100</v>
+        <v>24700</v>
       </c>
       <c r="F43" s="3">
-        <v>24600</v>
+        <v>22800</v>
       </c>
       <c r="G43" s="3">
-        <v>20900</v>
+        <v>25300</v>
       </c>
       <c r="H43" s="3">
-        <v>17900</v>
+        <v>21500</v>
       </c>
       <c r="I43" s="3">
-        <v>16800</v>
+        <v>18400</v>
       </c>
       <c r="J43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K43" s="3">
         <v>19500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2578,47 +2671,50 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="3">
-        <v>4200</v>
+        <v>5300</v>
       </c>
       <c r="F44" s="3">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="G44" s="3">
-        <v>3600</v>
+        <v>5100</v>
       </c>
       <c r="H44" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="I44" s="3">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="J44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>13800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2648,36 +2747,36 @@
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G45" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="3">
         <v>54100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2696,47 +2795,50 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89500</v>
+        <v>68200</v>
       </c>
       <c r="E46" s="3">
-        <v>77500</v>
+        <v>92000</v>
       </c>
       <c r="F46" s="3">
-        <v>73200</v>
+        <v>79700</v>
       </c>
       <c r="G46" s="3">
-        <v>78400</v>
+        <v>75300</v>
       </c>
       <c r="H46" s="3">
-        <v>66600</v>
+        <v>80600</v>
       </c>
       <c r="I46" s="3">
-        <v>59100</v>
+        <v>68500</v>
       </c>
       <c r="J46" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K46" s="3">
         <v>62500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,7 +2872,7 @@
         <v>1400</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G47" s="3">
         <v>1100</v>
@@ -2779,20 +2884,20 @@
         <v>1100</v>
       </c>
       <c r="J47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2805,8 +2910,8 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2814,47 +2919,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91500</v>
+        <v>97500</v>
       </c>
       <c r="E48" s="3">
-        <v>84400</v>
+        <v>94100</v>
       </c>
       <c r="F48" s="3">
-        <v>78900</v>
+        <v>86700</v>
       </c>
       <c r="G48" s="3">
-        <v>76900</v>
+        <v>81100</v>
       </c>
       <c r="H48" s="3">
-        <v>76600</v>
+        <v>79100</v>
       </c>
       <c r="I48" s="3">
-        <v>73700</v>
+        <v>78800</v>
       </c>
       <c r="J48" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K48" s="3">
         <v>69100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>53700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2873,47 +2981,50 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="E49" s="3">
-        <v>31000</v>
+        <v>34200</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>31900</v>
       </c>
       <c r="G49" s="3">
-        <v>27900</v>
+        <v>29700</v>
       </c>
       <c r="H49" s="3">
-        <v>26700</v>
+        <v>28700</v>
       </c>
       <c r="I49" s="3">
-        <v>26200</v>
+        <v>27400</v>
       </c>
       <c r="J49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K49" s="3">
         <v>27700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,47 +3167,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E52" s="3">
         <v>4500</v>
       </c>
       <c r="F52" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G52" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>220100</v>
+        <v>205700</v>
       </c>
       <c r="E54" s="3">
-        <v>198800</v>
+        <v>226300</v>
       </c>
       <c r="F54" s="3">
-        <v>186800</v>
+        <v>204400</v>
       </c>
       <c r="G54" s="3">
-        <v>188900</v>
+        <v>192000</v>
       </c>
       <c r="H54" s="3">
-        <v>174700</v>
+        <v>194200</v>
       </c>
       <c r="I54" s="3">
-        <v>163700</v>
+        <v>179600</v>
       </c>
       <c r="J54" s="3">
+        <v>168300</v>
+      </c>
+      <c r="K54" s="3">
         <v>163900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>135800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>167800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,47 +3403,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48900</v>
+        <v>24500</v>
       </c>
       <c r="E57" s="3">
-        <v>19800</v>
+        <v>50300</v>
       </c>
       <c r="F57" s="3">
-        <v>21200</v>
+        <v>20400</v>
       </c>
       <c r="G57" s="3">
-        <v>33400</v>
+        <v>21800</v>
       </c>
       <c r="H57" s="3">
-        <v>14600</v>
+        <v>34300</v>
       </c>
       <c r="I57" s="3">
-        <v>4800</v>
+        <v>15000</v>
       </c>
       <c r="J57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3332,47 +3463,50 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3400</v>
+        <v>5600</v>
       </c>
       <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3900</v>
-      </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>55500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3391,47 +3525,50 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="E59" s="3">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="F59" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="G59" s="3">
-        <v>16600</v>
+        <v>18800</v>
       </c>
       <c r="H59" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I59" s="3">
-        <v>24000</v>
+        <v>17100</v>
       </c>
       <c r="J59" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3450,47 +3587,50 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73700</v>
+        <v>50200</v>
       </c>
       <c r="E60" s="3">
-        <v>41800</v>
+        <v>75800</v>
       </c>
       <c r="F60" s="3">
-        <v>43800</v>
+        <v>43000</v>
       </c>
       <c r="G60" s="3">
-        <v>53900</v>
+        <v>45000</v>
       </c>
       <c r="H60" s="3">
-        <v>35100</v>
+        <v>55400</v>
       </c>
       <c r="I60" s="3">
-        <v>33100</v>
+        <v>36100</v>
       </c>
       <c r="J60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K60" s="3">
         <v>32000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,47 +3649,50 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7900</v>
+        <v>6400</v>
       </c>
       <c r="E61" s="3">
-        <v>5600</v>
+        <v>8100</v>
       </c>
       <c r="F61" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="G61" s="3">
         <v>5600</v>
       </c>
       <c r="H61" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="J61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,47 +3711,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F62" s="3">
         <v>8900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,47 +3959,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92500</v>
+        <v>68200</v>
       </c>
       <c r="E66" s="3">
-        <v>57800</v>
+        <v>95100</v>
       </c>
       <c r="F66" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="G66" s="3">
-        <v>68800</v>
+        <v>60700</v>
       </c>
       <c r="H66" s="3">
-        <v>51400</v>
+        <v>70800</v>
       </c>
       <c r="I66" s="3">
-        <v>49700</v>
+        <v>52900</v>
       </c>
       <c r="J66" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K66" s="3">
         <v>52000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>118600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,47 +4293,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-268600</v>
+        <v>-266700</v>
       </c>
       <c r="E72" s="3">
-        <v>-250500</v>
+        <v>-276200</v>
       </c>
       <c r="F72" s="3">
-        <v>-258200</v>
+        <v>-257500</v>
       </c>
       <c r="G72" s="3">
+        <v>-265500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-272600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-265100</v>
       </c>
-      <c r="H72" s="3">
-        <v>-257900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-266000</v>
-      </c>
       <c r="J72" s="3">
+        <v>-273500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-271900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-272900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-293100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,47 +4541,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>127600</v>
+        <v>137500</v>
       </c>
       <c r="E76" s="3">
-        <v>141000</v>
+        <v>131100</v>
       </c>
       <c r="F76" s="3">
-        <v>127800</v>
+        <v>145000</v>
       </c>
       <c r="G76" s="3">
-        <v>120100</v>
+        <v>131400</v>
       </c>
       <c r="H76" s="3">
-        <v>123300</v>
+        <v>123500</v>
       </c>
       <c r="I76" s="3">
-        <v>114000</v>
+        <v>126800</v>
       </c>
       <c r="J76" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K76" s="3">
         <v>111900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44073</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43707</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K81" s="3">
         <v>7700</v>
       </c>
-      <c r="F81" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>7800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,15 +4850,15 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>6600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4672,8 +4871,8 @@
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,44 +5190,47 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18000</v>
+        <v>16600</v>
       </c>
       <c r="E89" s="3">
-        <v>14900</v>
+        <v>18500</v>
       </c>
       <c r="F89" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G89" s="3">
-        <v>12700</v>
+        <v>15600</v>
       </c>
       <c r="H89" s="3">
-        <v>16900</v>
+        <v>13100</v>
       </c>
       <c r="I89" s="3">
-        <v>9600</v>
+        <v>17400</v>
       </c>
       <c r="J89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5026,8 +5243,8 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,15 +5308,15 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5108,8 +5329,8 @@
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,44 +5462,47 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10500</v>
+        <v>-13400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10000</v>
+        <v>-10700</v>
       </c>
       <c r="F94" s="3">
-        <v>-6600</v>
+        <v>-10300</v>
       </c>
       <c r="G94" s="3">
-        <v>-7500</v>
+        <v>-6800</v>
       </c>
       <c r="H94" s="3">
-        <v>-8900</v>
+        <v>-7700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6100</v>
+        <v>-9200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5285,8 +5515,8 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,44 +5796,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>-28200</v>
       </c>
       <c r="E100" s="3">
         <v>-1000</v>
       </c>
       <c r="F100" s="3">
-        <v>-18500</v>
+        <v>-1000</v>
       </c>
       <c r="G100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I100" s="3">
-        <v>-5600</v>
+        <v>-2000</v>
       </c>
       <c r="J100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5603,8 +5849,8 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5612,44 +5858,47 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2500</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5662,8 +5911,8 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5671,44 +5920,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9100</v>
+        <v>-26500</v>
       </c>
       <c r="E102" s="3">
-        <v>7800</v>
+        <v>9400</v>
       </c>
       <c r="F102" s="3">
-        <v>-9700</v>
+        <v>8000</v>
       </c>
       <c r="G102" s="3">
-        <v>7800</v>
+        <v>-9900</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="I102" s="3">
-        <v>-4300</v>
+        <v>7400</v>
       </c>
       <c r="J102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
@@ -5721,13 +5973,16 @@
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
